--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,22 +394,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>high_check</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -448,12 +448,14 @@
         <v>545.1516</v>
       </c>
       <c r="G2" t="n">
-        <v>578.9</v>
+        <v>6828.293700000007</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -481,12 +483,14 @@
         <v>991.0031</v>
       </c>
       <c r="G3" t="n">
-        <v>579.3666666666667</v>
+        <v>5837.290600000007</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -514,12 +518,14 @@
         <v>1529.5652</v>
       </c>
       <c r="G4" t="n">
-        <v>579.8333333333334</v>
+        <v>5837.290600000007</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -547,12 +553,14 @@
         <v>208.3943</v>
       </c>
       <c r="G5" t="n">
-        <v>580.3333333333334</v>
+        <v>5837.290600000007</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -580,18 +588,16 @@
         <v>11875.6053</v>
       </c>
       <c r="G6" t="n">
-        <v>580.8333333333334</v>
+        <v>17712.89590000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>602</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -617,20 +623,16 @@
         <v>7479.644</v>
       </c>
       <c r="G7" t="n">
-        <v>581.4166666666666</v>
+        <v>25192.53990000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>602</v>
-      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -656,22 +658,16 @@
         <v>1546.7953</v>
       </c>
       <c r="G8" t="n">
-        <v>582.0333333333333</v>
+        <v>26739.33520000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>607</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -697,20 +693,16 @@
         <v>1.8909</v>
       </c>
       <c r="G9" t="n">
-        <v>582.8666666666667</v>
+        <v>26741.22610000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>602</v>
-      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -736,22 +728,16 @@
         <v>141</v>
       </c>
       <c r="G10" t="n">
-        <v>583.5333333333333</v>
+        <v>26600.22610000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>619</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -777,20 +763,16 @@
         <v>2174.1091</v>
       </c>
       <c r="G11" t="n">
-        <v>584.2166666666667</v>
+        <v>28774.33520000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>602</v>
-      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -816,20 +798,16 @@
         <v>1176.2034</v>
       </c>
       <c r="G12" t="n">
-        <v>584.95</v>
+        <v>28774.33520000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>602</v>
-      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -855,20 +833,16 @@
         <v>3353.2787</v>
       </c>
       <c r="G13" t="n">
-        <v>585.65</v>
+        <v>28774.33520000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>602</v>
-      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -894,20 +868,16 @@
         <v>2557.7172</v>
       </c>
       <c r="G14" t="n">
-        <v>586.5333333333333</v>
+        <v>31332.05240000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>602</v>
-      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -933,20 +903,16 @@
         <v>16943.7378</v>
       </c>
       <c r="G15" t="n">
-        <v>587.6833333333333</v>
+        <v>48275.7902</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>602</v>
-      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -972,12 +938,14 @@
         <v>3249.0478</v>
       </c>
       <c r="G16" t="n">
-        <v>588.7</v>
+        <v>51524.838</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1005,12 +973,14 @@
         <v>1936.7673</v>
       </c>
       <c r="G17" t="n">
-        <v>589.8833333333333</v>
+        <v>49588.0707</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1038,12 +1008,14 @@
         <v>4346.7515</v>
       </c>
       <c r="G18" t="n">
-        <v>590.8</v>
+        <v>45241.31920000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1071,12 +1043,14 @@
         <v>786.6919</v>
       </c>
       <c r="G19" t="n">
-        <v>591.85</v>
+        <v>44454.62730000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1104,12 +1078,14 @@
         <v>3265.0643</v>
       </c>
       <c r="G20" t="n">
-        <v>592.8</v>
+        <v>41189.56300000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1137,12 +1113,14 @@
         <v>265.9039</v>
       </c>
       <c r="G21" t="n">
-        <v>593.7333333333333</v>
+        <v>41189.56300000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1170,12 +1148,14 @@
         <v>1397.5695</v>
       </c>
       <c r="G22" t="n">
-        <v>594.65</v>
+        <v>39791.99350000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1203,12 +1183,14 @@
         <v>575.8339999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>595.35</v>
+        <v>39216.15950000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1236,12 +1218,14 @@
         <v>4246.9644</v>
       </c>
       <c r="G24" t="n">
-        <v>595.95</v>
+        <v>34969.19510000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1269,12 +1253,14 @@
         <v>0.4908</v>
       </c>
       <c r="G25" t="n">
-        <v>596.5666666666667</v>
+        <v>34969.19510000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1302,12 +1288,14 @@
         <v>2584.171</v>
       </c>
       <c r="G26" t="n">
-        <v>597.0833333333334</v>
+        <v>32385.02410000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1335,12 +1323,14 @@
         <v>1589.1803</v>
       </c>
       <c r="G27" t="n">
-        <v>597.6333333333333</v>
+        <v>33974.20440000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1368,12 +1358,14 @@
         <v>17.9033</v>
       </c>
       <c r="G28" t="n">
-        <v>598.2666666666667</v>
+        <v>33992.10770000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1401,12 +1393,14 @@
         <v>17.905</v>
       </c>
       <c r="G29" t="n">
-        <v>598.9</v>
+        <v>33992.10770000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1434,12 +1428,14 @@
         <v>1083.3855</v>
       </c>
       <c r="G30" t="n">
-        <v>599.5</v>
+        <v>32908.72220000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1467,12 +1463,14 @@
         <v>3195.7498</v>
       </c>
       <c r="G31" t="n">
-        <v>600.0833333333334</v>
+        <v>36104.47200000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1500,12 +1498,14 @@
         <v>1480.195</v>
       </c>
       <c r="G32" t="n">
-        <v>600.7333333333333</v>
+        <v>37584.66700000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1533,12 +1533,14 @@
         <v>6645.6873</v>
       </c>
       <c r="G33" t="n">
-        <v>601.45</v>
+        <v>44230.35430000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1566,12 +1568,14 @@
         <v>519.64</v>
       </c>
       <c r="G34" t="n">
-        <v>602.1833333333333</v>
+        <v>44749.99430000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -1599,12 +1603,14 @@
         <v>30</v>
       </c>
       <c r="G35" t="n">
-        <v>602.8166666666667</v>
+        <v>44779.99430000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -1632,12 +1638,14 @@
         <v>575.657</v>
       </c>
       <c r="G36" t="n">
-        <v>603.4666666666667</v>
+        <v>45355.65130000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1665,12 +1673,14 @@
         <v>0.8</v>
       </c>
       <c r="G37" t="n">
-        <v>604.25</v>
+        <v>45356.45130000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -1698,12 +1708,14 @@
         <v>888.4926</v>
       </c>
       <c r="G38" t="n">
-        <v>604.8166666666667</v>
+        <v>44467.95870000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -1731,12 +1743,14 @@
         <v>338.2064</v>
       </c>
       <c r="G39" t="n">
-        <v>605.4666666666667</v>
+        <v>44806.16510000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -1764,12 +1778,14 @@
         <v>1445.195</v>
       </c>
       <c r="G40" t="n">
-        <v>605.9666666666667</v>
+        <v>43360.97010000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -1797,12 +1813,14 @@
         <v>626.675</v>
       </c>
       <c r="G41" t="n">
-        <v>606.6166666666667</v>
+        <v>43987.64510000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -1830,12 +1848,14 @@
         <v>79.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>607.1333333333333</v>
+        <v>43907.64520000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -1863,12 +1883,14 @@
         <v>600</v>
       </c>
       <c r="G43" t="n">
-        <v>607.5333333333333</v>
+        <v>43307.64520000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -1896,12 +1918,14 @@
         <v>52</v>
       </c>
       <c r="G44" t="n">
-        <v>608.0333333333333</v>
+        <v>43359.64520000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -1929,12 +1953,14 @@
         <v>4.90998363</v>
       </c>
       <c r="G45" t="n">
-        <v>608.4666666666667</v>
+        <v>43364.55518363002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -1962,12 +1988,14 @@
         <v>3628.8247</v>
       </c>
       <c r="G46" t="n">
-        <v>608.5666666666667</v>
+        <v>39735.73048363002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -1995,12 +2023,14 @@
         <v>1560.2836</v>
       </c>
       <c r="G47" t="n">
-        <v>608.8833333333333</v>
+        <v>41296.01408363003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2028,12 +2058,14 @@
         <v>191.3344</v>
       </c>
       <c r="G48" t="n">
-        <v>609.1833333333333</v>
+        <v>41104.67968363003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2061,12 +2093,14 @@
         <v>5448.8733</v>
       </c>
       <c r="G49" t="n">
-        <v>609.45</v>
+        <v>35655.80638363003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2094,12 +2128,14 @@
         <v>240.3658</v>
       </c>
       <c r="G50" t="n">
-        <v>609.6166666666667</v>
+        <v>35415.44058363003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2127,12 +2163,14 @@
         <v>1513.6591</v>
       </c>
       <c r="G51" t="n">
-        <v>609.7833333333333</v>
+        <v>35415.44058363003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2160,12 +2198,14 @@
         <v>1027.0884</v>
       </c>
       <c r="G52" t="n">
-        <v>609.9833333333333</v>
+        <v>35415.44058363003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2193,12 +2233,14 @@
         <v>1282.7629</v>
       </c>
       <c r="G53" t="n">
-        <v>610.0833333333334</v>
+        <v>34132.67768363003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2226,12 +2268,14 @@
         <v>946</v>
       </c>
       <c r="G54" t="n">
-        <v>610.4833333333333</v>
+        <v>35078.67768363003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -2259,12 +2303,14 @@
         <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>610.85</v>
+        <v>35028.67768363003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -2292,12 +2338,14 @@
         <v>558.6026000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>611.0166666666667</v>
+        <v>35587.28028363003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -2325,12 +2373,14 @@
         <v>672</v>
       </c>
       <c r="G57" t="n">
-        <v>611.1666666666666</v>
+        <v>35587.28028363003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -2358,12 +2408,14 @@
         <v>186</v>
       </c>
       <c r="G58" t="n">
-        <v>611.45</v>
+        <v>35773.28028363003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -2391,12 +2443,14 @@
         <v>6217.2712</v>
       </c>
       <c r="G59" t="n">
-        <v>611.4833333333333</v>
+        <v>29556.00908363003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -2424,12 +2478,14 @@
         <v>4.3513</v>
       </c>
       <c r="G60" t="n">
-        <v>611.3666666666667</v>
+        <v>29551.65778363003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -2457,12 +2513,14 @@
         <v>265.9039</v>
       </c>
       <c r="G61" t="n">
-        <v>611.3</v>
+        <v>29817.56168363003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -2490,12 +2548,14 @@
         <v>2670.2682</v>
       </c>
       <c r="G62" t="n">
-        <v>611.3</v>
+        <v>32487.82988363003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -2523,12 +2583,14 @@
         <v>845.6768</v>
       </c>
       <c r="G63" t="n">
-        <v>611.3</v>
+        <v>31642.15308363003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -2556,12 +2618,14 @@
         <v>745.2933</v>
       </c>
       <c r="G64" t="n">
-        <v>611.1666666666666</v>
+        <v>30896.85978363003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -2589,12 +2653,14 @@
         <v>827.4139</v>
       </c>
       <c r="G65" t="n">
-        <v>610.9833333333333</v>
+        <v>30069.44588363003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -2622,12 +2688,14 @@
         <v>1109.9206</v>
       </c>
       <c r="G66" t="n">
-        <v>610.9666666666667</v>
+        <v>31179.36648363003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -2655,12 +2723,14 @@
         <v>10215.6659</v>
       </c>
       <c r="G67" t="n">
-        <v>610.8666666666667</v>
+        <v>20963.70058363003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -2688,12 +2758,14 @@
         <v>1030.9283</v>
       </c>
       <c r="G68" t="n">
-        <v>610.7</v>
+        <v>19932.77228363003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -2721,12 +2793,14 @@
         <v>1075.6293</v>
       </c>
       <c r="G69" t="n">
-        <v>610.3333333333334</v>
+        <v>18857.14298363003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -2754,12 +2828,14 @@
         <v>362.4599</v>
       </c>
       <c r="G70" t="n">
-        <v>610.15</v>
+        <v>19219.60288363003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -2787,12 +2863,14 @@
         <v>1100.8934</v>
       </c>
       <c r="G71" t="n">
-        <v>609.7833333333333</v>
+        <v>18118.70948363003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -2820,12 +2898,14 @@
         <v>621.3728</v>
       </c>
       <c r="G72" t="n">
-        <v>609.3166666666667</v>
+        <v>17497.33668363003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -2853,12 +2933,14 @@
         <v>110</v>
       </c>
       <c r="G73" t="n">
-        <v>608.9333333333333</v>
+        <v>17607.33668363003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -2886,12 +2968,14 @@
         <v>469.4095</v>
       </c>
       <c r="G74" t="n">
-        <v>608.4333333333333</v>
+        <v>17607.33668363003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -2919,12 +3003,14 @@
         <v>1012</v>
       </c>
       <c r="G75" t="n">
-        <v>607.6833333333333</v>
+        <v>16595.33668363003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -2952,12 +3038,14 @@
         <v>870.7238</v>
       </c>
       <c r="G76" t="n">
-        <v>606.9833333333333</v>
+        <v>17466.06048363003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
@@ -2985,12 +3073,14 @@
         <v>432.63</v>
       </c>
       <c r="G77" t="n">
-        <v>606.2666666666667</v>
+        <v>17033.43048363003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -3018,12 +3108,14 @@
         <v>501</v>
       </c>
       <c r="G78" t="n">
-        <v>605.65</v>
+        <v>17534.43048363003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -3051,15 +3143,23 @@
         <v>867</v>
       </c>
       <c r="G79" t="n">
-        <v>605.0833333333334</v>
+        <v>18401.43048363003</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>595</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3084,15 +3184,21 @@
         <v>740.7652</v>
       </c>
       <c r="G80" t="n">
-        <v>604.5333333333333</v>
+        <v>18401.43048363003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3117,15 +3223,21 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>604</v>
+        <v>18402.43048363003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3150,15 +3262,21 @@
         <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>603.6</v>
+        <v>18432.43048363003</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3183,15 +3301,21 @@
         <v>131</v>
       </c>
       <c r="G83" t="n">
-        <v>603.4</v>
+        <v>18563.43048363003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3216,15 +3340,21 @@
         <v>1378.4746</v>
       </c>
       <c r="G84" t="n">
-        <v>603.3</v>
+        <v>18563.43048363003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3249,15 +3379,21 @@
         <v>227</v>
       </c>
       <c r="G85" t="n">
-        <v>603.2</v>
+        <v>18563.43048363003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3282,15 +3418,21 @@
         <v>675</v>
       </c>
       <c r="G86" t="n">
-        <v>603.1666666666666</v>
+        <v>19238.43048363003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3315,15 +3457,21 @@
         <v>428.6505</v>
       </c>
       <c r="G87" t="n">
-        <v>603.1</v>
+        <v>19667.08098363003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3348,15 +3496,21 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>602.9333333333333</v>
+        <v>19666.08098363003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3381,15 +3535,21 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>602.8166666666667</v>
+        <v>19667.08098363003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3414,15 +3574,21 @@
         <v>1203.7176</v>
       </c>
       <c r="G90" t="n">
-        <v>602.7833333333333</v>
+        <v>20870.79858363002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3447,15 +3613,21 @@
         <v>40</v>
       </c>
       <c r="G91" t="n">
-        <v>602.4833333333333</v>
+        <v>20830.79858363002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3480,15 +3652,21 @@
         <v>160</v>
       </c>
       <c r="G92" t="n">
-        <v>602.3833333333333</v>
+        <v>20990.79858363002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3513,15 +3691,21 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>602.1</v>
+        <v>20989.79858363002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3546,15 +3730,21 @@
         <v>169.7854</v>
       </c>
       <c r="G94" t="n">
-        <v>601.8666666666667</v>
+        <v>21159.58398363003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3579,15 +3769,21 @@
         <v>4841</v>
       </c>
       <c r="G95" t="n">
-        <v>601.6166666666667</v>
+        <v>21159.58398363003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3612,15 +3808,21 @@
         <v>313.5373</v>
       </c>
       <c r="G96" t="n">
-        <v>601.35</v>
+        <v>21473.12128363003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3645,15 +3847,21 @@
         <v>225.9627</v>
       </c>
       <c r="G97" t="n">
-        <v>600.95</v>
+        <v>21473.12128363003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3678,15 +3886,21 @@
         <v>1920.0465</v>
       </c>
       <c r="G98" t="n">
-        <v>600.7666666666667</v>
+        <v>21473.12128363003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3711,15 +3925,21 @@
         <v>755.4991</v>
       </c>
       <c r="G99" t="n">
-        <v>600.5166666666667</v>
+        <v>22228.62038363003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3744,15 +3964,21 @@
         <v>153.138</v>
       </c>
       <c r="G100" t="n">
-        <v>600.4333333333333</v>
+        <v>22381.75838363003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3777,15 +4003,21 @@
         <v>444.5373</v>
       </c>
       <c r="G101" t="n">
-        <v>600.2166666666667</v>
+        <v>22381.75838363003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3810,15 +4042,21 @@
         <v>1441.572</v>
       </c>
       <c r="G102" t="n">
-        <v>600</v>
+        <v>20940.18638363003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3843,15 +4081,21 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>600.0166666666667</v>
+        <v>20951.18638363003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -3876,15 +4120,21 @@
         <v>576.5</v>
       </c>
       <c r="G104" t="n">
-        <v>599.9333333333333</v>
+        <v>20951.18638363003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -3909,15 +4159,21 @@
         <v>5861.3755</v>
       </c>
       <c r="G105" t="n">
-        <v>599.9166666666666</v>
+        <v>26812.56188363003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -3942,15 +4198,21 @@
         <v>1604.469</v>
       </c>
       <c r="G106" t="n">
-        <v>600.2</v>
+        <v>28417.03088363003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -3975,15 +4237,21 @@
         <v>524</v>
       </c>
       <c r="G107" t="n">
-        <v>600.2833333333333</v>
+        <v>28417.03088363003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4008,15 +4276,21 @@
         <v>471</v>
       </c>
       <c r="G108" t="n">
-        <v>600.3833333333333</v>
+        <v>28417.03088363003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4041,15 +4315,21 @@
         <v>1983.9998</v>
       </c>
       <c r="G109" t="n">
-        <v>600.5</v>
+        <v>28417.03088363003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4074,15 +4354,21 @@
         <v>1316</v>
       </c>
       <c r="G110" t="n">
-        <v>600.7333333333333</v>
+        <v>28417.03088363003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4107,15 +4393,21 @@
         <v>1266.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>600.9666666666667</v>
+        <v>28417.03088363003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4140,15 +4432,21 @@
         <v>272.9999</v>
       </c>
       <c r="G112" t="n">
-        <v>601.2</v>
+        <v>28417.03088363003</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4173,15 +4471,21 @@
         <v>743.4342</v>
       </c>
       <c r="G113" t="n">
-        <v>601.45</v>
+        <v>27673.59668363003</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4206,15 +4510,21 @@
         <v>135</v>
       </c>
       <c r="G114" t="n">
-        <v>601.6166666666667</v>
+        <v>27673.59668363003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4239,15 +4549,23 @@
         <v>53.49</v>
       </c>
       <c r="G115" t="n">
-        <v>601.8166666666667</v>
+        <v>27673.59668363003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>610</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4272,15 +4590,21 @@
         <v>399.1109</v>
       </c>
       <c r="G116" t="n">
-        <v>602.0166666666667</v>
+        <v>28072.70758363003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4305,15 +4629,21 @@
         <v>332.44</v>
       </c>
       <c r="G117" t="n">
-        <v>602.2166666666667</v>
+        <v>28072.70758363003</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4338,15 +4668,21 @@
         <v>1440.62</v>
       </c>
       <c r="G118" t="n">
-        <v>602.2333333333333</v>
+        <v>28072.70758363003</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4371,15 +4707,21 @@
         <v>469.5174</v>
       </c>
       <c r="G119" t="n">
-        <v>602.4333333333333</v>
+        <v>27603.19018363003</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4404,15 +4746,23 @@
         <v>2881.0631</v>
       </c>
       <c r="G120" t="n">
-        <v>602.6666666666666</v>
+        <v>30484.25328363003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>607</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4437,15 +4787,23 @@
         <v>2228.2273</v>
       </c>
       <c r="G121" t="n">
-        <v>602.8333333333334</v>
+        <v>28256.02598363003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>608</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4470,379 +4828,24 @@
         <v>528.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>602.9333333333333</v>
+        <v>28785.02588363003</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>607</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>610</v>
-      </c>
-      <c r="C123" t="n">
-        <v>610</v>
-      </c>
-      <c r="D123" t="n">
-        <v>610</v>
-      </c>
-      <c r="E123" t="n">
-        <v>610</v>
-      </c>
-      <c r="F123" t="n">
-        <v>160.1471</v>
-      </c>
-      <c r="G123" t="n">
-        <v>603.0666666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>611</v>
-      </c>
-      <c r="C124" t="n">
-        <v>611</v>
-      </c>
-      <c r="D124" t="n">
-        <v>611</v>
-      </c>
-      <c r="E124" t="n">
-        <v>611</v>
-      </c>
-      <c r="F124" t="n">
-        <v>79</v>
-      </c>
-      <c r="G124" t="n">
-        <v>603.35</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>611</v>
-      </c>
-      <c r="C125" t="n">
-        <v>611</v>
-      </c>
-      <c r="D125" t="n">
-        <v>611</v>
-      </c>
-      <c r="E125" t="n">
-        <v>611</v>
-      </c>
-      <c r="F125" t="n">
-        <v>88.9999</v>
-      </c>
-      <c r="G125" t="n">
-        <v>603.6833333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>611</v>
-      </c>
-      <c r="C126" t="n">
-        <v>611</v>
-      </c>
-      <c r="D126" t="n">
-        <v>611</v>
-      </c>
-      <c r="E126" t="n">
-        <v>611</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" t="n">
-        <v>603.8333333333334</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>611</v>
-      </c>
-      <c r="C127" t="n">
-        <v>611</v>
-      </c>
-      <c r="D127" t="n">
-        <v>611</v>
-      </c>
-      <c r="E127" t="n">
-        <v>611</v>
-      </c>
-      <c r="F127" t="n">
-        <v>62</v>
-      </c>
-      <c r="G127" t="n">
-        <v>604</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>611</v>
-      </c>
-      <c r="C128" t="n">
-        <v>611</v>
-      </c>
-      <c r="D128" t="n">
-        <v>611</v>
-      </c>
-      <c r="E128" t="n">
-        <v>611</v>
-      </c>
-      <c r="F128" t="n">
-        <v>645.0306</v>
-      </c>
-      <c r="G128" t="n">
-        <v>604.2166666666667</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>611</v>
-      </c>
-      <c r="C129" t="n">
-        <v>611</v>
-      </c>
-      <c r="D129" t="n">
-        <v>611</v>
-      </c>
-      <c r="E129" t="n">
-        <v>611</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2037.9393</v>
-      </c>
-      <c r="G129" t="n">
-        <v>604.45</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>606</v>
-      </c>
-      <c r="C130" t="n">
-        <v>618</v>
-      </c>
-      <c r="D130" t="n">
-        <v>618</v>
-      </c>
-      <c r="E130" t="n">
-        <v>605</v>
-      </c>
-      <c r="F130" t="n">
-        <v>4673.9203</v>
-      </c>
-      <c r="G130" t="n">
-        <v>604.7833333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>605</v>
-      </c>
-      <c r="C131" t="n">
-        <v>610</v>
-      </c>
-      <c r="D131" t="n">
-        <v>611</v>
-      </c>
-      <c r="E131" t="n">
-        <v>604</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4506.5915</v>
-      </c>
-      <c r="G131" t="n">
-        <v>605</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>617</v>
-      </c>
-      <c r="C132" t="n">
-        <v>617</v>
-      </c>
-      <c r="D132" t="n">
-        <v>617</v>
-      </c>
-      <c r="E132" t="n">
-        <v>617</v>
-      </c>
-      <c r="F132" t="n">
-        <v>736.7055</v>
-      </c>
-      <c r="G132" t="n">
-        <v>605.4333333333333</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>617</v>
-      </c>
-      <c r="C133" t="n">
-        <v>617</v>
-      </c>
-      <c r="D133" t="n">
-        <v>617</v>
-      </c>
-      <c r="E133" t="n">
-        <v>617</v>
-      </c>
-      <c r="F133" t="n">
-        <v>5.6503</v>
-      </c>
-      <c r="G133" t="n">
-        <v>605.7833333333333</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1434,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1504,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1574,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1784,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2064,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2099,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2134,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2169,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2204,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2239,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2274,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2344,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2379,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2414,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2449,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2484,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2589,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2729,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2764,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2799,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3009,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3079,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3149,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>595</v>
@@ -3163,6 +3245,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3190,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3202,6 +3285,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3229,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3241,6 +3325,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3280,6 +3365,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3307,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3319,6 +3405,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3346,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3358,6 +3445,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3385,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3397,6 +3485,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3424,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3436,6 +3525,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3463,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3475,6 +3565,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3502,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3514,6 +3605,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3541,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3553,6 +3645,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3592,6 +3685,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3619,17 +3713,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1.088586030664395</v>
       </c>
     </row>
     <row r="92">
@@ -3662,14 +3757,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3701,14 +3793,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3740,14 +3829,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3779,14 +3865,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3818,14 +3901,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3857,14 +3937,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3896,14 +3973,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3931,18 +4005,15 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3974,14 +4045,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4013,14 +4081,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4052,14 +4117,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4091,14 +4153,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,14 +4189,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4169,14 +4225,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4204,18 +4257,15 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4243,18 +4293,15 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4282,18 +4329,15 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4321,18 +4365,15 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4360,18 +4401,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4403,14 +4441,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4442,14 +4477,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4477,18 +4509,15 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4520,14 +4549,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4560,15 +4586,14 @@
       <c r="J115" t="n">
         <v>610</v>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="n">
+        <v>610</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4599,15 +4624,18 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>610</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4635,10 +4663,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>610</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4647,6 +4677,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4674,10 +4705,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>610</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,6 +4719,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4713,10 +4747,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>610</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4725,6 +4761,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4757,7 +4794,9 @@
       <c r="J120" t="n">
         <v>607</v>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>610</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,6 +4805,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4798,7 +4838,9 @@
       <c r="J121" t="n">
         <v>608</v>
       </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>610</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4807,6 +4849,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4839,7 +4882,9 @@
       <c r="J122" t="n">
         <v>607</v>
       </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>610</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4848,6 +4893,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="C2" t="n">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="D2" t="n">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="E2" t="n">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="F2" t="n">
-        <v>545.1516</v>
+        <v>10336.3859</v>
       </c>
       <c r="G2" t="n">
-        <v>6828.293700000007</v>
+        <v>-27195.34149999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="C3" t="n">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="D3" t="n">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="E3" t="n">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="F3" t="n">
-        <v>991.0031</v>
+        <v>877.6792</v>
       </c>
       <c r="G3" t="n">
-        <v>5837.290600000007</v>
+        <v>-26317.6623</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>570</v>
+      </c>
+      <c r="K3" t="n">
+        <v>570</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="C4" t="n">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="D4" t="n">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="E4" t="n">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="F4" t="n">
-        <v>1529.5652</v>
+        <v>1100</v>
       </c>
       <c r="G4" t="n">
-        <v>5837.290600000007</v>
+        <v>-25217.6623</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>571</v>
+      </c>
+      <c r="K4" t="n">
+        <v>570</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C5" t="n">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="D5" t="n">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="E5" t="n">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="F5" t="n">
-        <v>208.3943</v>
+        <v>3374</v>
       </c>
       <c r="G5" t="n">
-        <v>5837.290600000007</v>
+        <v>-21843.6623</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>578</v>
+      </c>
+      <c r="K5" t="n">
+        <v>570</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C6" t="n">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="D6" t="n">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="E6" t="n">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="F6" t="n">
-        <v>11875.6053</v>
+        <v>3279.28</v>
       </c>
       <c r="G6" t="n">
-        <v>17712.89590000001</v>
+        <v>-21843.6623</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>579</v>
+      </c>
+      <c r="K6" t="n">
+        <v>570</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="C7" t="n">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="D7" t="n">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="E7" t="n">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="F7" t="n">
-        <v>7479.644</v>
+        <v>4011.0893</v>
       </c>
       <c r="G7" t="n">
-        <v>25192.53990000001</v>
+        <v>-21843.6623</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>579</v>
+      </c>
+      <c r="K7" t="n">
+        <v>570</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="C8" t="n">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="D8" t="n">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="E8" t="n">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="F8" t="n">
-        <v>1546.7953</v>
+        <v>200</v>
       </c>
       <c r="G8" t="n">
-        <v>26739.33520000001</v>
+        <v>-21643.6623</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>579</v>
+      </c>
+      <c r="K8" t="n">
+        <v>570</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="C9" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="D9" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="E9" t="n">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8909</v>
+        <v>150</v>
       </c>
       <c r="G9" t="n">
-        <v>26741.22610000001</v>
+        <v>-21643.6623</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>580</v>
+      </c>
+      <c r="K9" t="n">
+        <v>570</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +778,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="C10" t="n">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="D10" t="n">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="E10" t="n">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="F10" t="n">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>26600.22610000001</v>
+        <v>-21743.6623</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>580</v>
+      </c>
+      <c r="K10" t="n">
+        <v>570</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +822,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="C11" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="D11" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="E11" t="n">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="F11" t="n">
-        <v>2174.1091</v>
+        <v>550</v>
       </c>
       <c r="G11" t="n">
-        <v>28774.33520000001</v>
+        <v>-21193.6623</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>579</v>
+      </c>
+      <c r="K11" t="n">
+        <v>570</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +866,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="C12" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="D12" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="E12" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="F12" t="n">
-        <v>1176.2034</v>
+        <v>4442</v>
       </c>
       <c r="G12" t="n">
-        <v>28774.33520000001</v>
+        <v>-21193.6623</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>580</v>
+      </c>
+      <c r="K12" t="n">
+        <v>570</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +910,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="C13" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="D13" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="E13" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="F13" t="n">
-        <v>3353.2787</v>
+        <v>3154.6933</v>
       </c>
       <c r="G13" t="n">
-        <v>28774.33520000001</v>
+        <v>-21193.6623</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>580</v>
+      </c>
+      <c r="K13" t="n">
+        <v>570</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +954,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="C14" t="n">
-        <v>626</v>
+        <v>585</v>
       </c>
       <c r="D14" t="n">
-        <v>626</v>
+        <v>585</v>
       </c>
       <c r="E14" t="n">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="F14" t="n">
-        <v>2557.7172</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>31332.05240000001</v>
+        <v>-21190.6623</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>580</v>
+      </c>
+      <c r="K14" t="n">
+        <v>570</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +998,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="C15" t="n">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="D15" t="n">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="E15" t="n">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="F15" t="n">
-        <v>16943.7378</v>
+        <v>793.1917</v>
       </c>
       <c r="G15" t="n">
-        <v>48275.7902</v>
+        <v>-20397.4706</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>585</v>
+      </c>
+      <c r="K15" t="n">
+        <v>570</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1042,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635</v>
+        <v>587</v>
       </c>
       <c r="C16" t="n">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="D16" t="n">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="E16" t="n">
-        <v>635</v>
+        <v>587</v>
       </c>
       <c r="F16" t="n">
-        <v>3249.0478</v>
+        <v>116</v>
       </c>
       <c r="G16" t="n">
-        <v>51524.838</v>
+        <v>-20513.4706</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>588</v>
+      </c>
+      <c r="K16" t="n">
+        <v>570</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1086,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="C17" t="n">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="D17" t="n">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="E17" t="n">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="F17" t="n">
-        <v>1936.7673</v>
+        <v>435.9</v>
       </c>
       <c r="G17" t="n">
-        <v>49588.0707</v>
+        <v>-20513.4706</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>587</v>
+      </c>
+      <c r="K17" t="n">
+        <v>570</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1130,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>634</v>
+        <v>588</v>
       </c>
       <c r="C18" t="n">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="D18" t="n">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="E18" t="n">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="F18" t="n">
-        <v>4346.7515</v>
+        <v>428</v>
       </c>
       <c r="G18" t="n">
-        <v>45241.31920000001</v>
+        <v>-20085.4706</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>587</v>
+      </c>
+      <c r="K18" t="n">
+        <v>570</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1174,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="C19" t="n">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="D19" t="n">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="E19" t="n">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="F19" t="n">
-        <v>786.6919</v>
+        <v>2413.6174</v>
       </c>
       <c r="G19" t="n">
-        <v>44454.62730000001</v>
+        <v>-22499.088</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>588</v>
+      </c>
+      <c r="K19" t="n">
+        <v>570</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1218,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="C20" t="n">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="D20" t="n">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="E20" t="n">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="F20" t="n">
-        <v>3265.0643</v>
+        <v>105.4</v>
       </c>
       <c r="G20" t="n">
-        <v>41189.56300000001</v>
+        <v>-22499.088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>587</v>
+      </c>
+      <c r="K20" t="n">
+        <v>570</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1262,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="C21" t="n">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="D21" t="n">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="E21" t="n">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="F21" t="n">
-        <v>265.9039</v>
+        <v>1818.8551</v>
       </c>
       <c r="G21" t="n">
-        <v>41189.56300000001</v>
+        <v>-24317.9431</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>587</v>
+      </c>
+      <c r="K21" t="n">
+        <v>570</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1306,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="C22" t="n">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="D22" t="n">
-        <v>630</v>
+        <v>589</v>
       </c>
       <c r="E22" t="n">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="F22" t="n">
-        <v>1397.5695</v>
+        <v>4136.5319</v>
       </c>
       <c r="G22" t="n">
-        <v>39791.99350000001</v>
+        <v>-20181.4112</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>585</v>
+      </c>
+      <c r="K22" t="n">
+        <v>570</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1350,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="C23" t="n">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="D23" t="n">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="E23" t="n">
-        <v>616</v>
+        <v>575</v>
       </c>
       <c r="F23" t="n">
-        <v>575.8339999999999</v>
+        <v>966</v>
       </c>
       <c r="G23" t="n">
-        <v>39216.15950000001</v>
+        <v>-21147.4112</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>589</v>
+      </c>
+      <c r="K23" t="n">
+        <v>570</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1394,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="C24" t="n">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="D24" t="n">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="E24" t="n">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="F24" t="n">
-        <v>4246.9644</v>
+        <v>1166</v>
       </c>
       <c r="G24" t="n">
-        <v>34969.19510000001</v>
+        <v>-21147.4112</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>576</v>
+      </c>
+      <c r="K24" t="n">
+        <v>570</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1438,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="C25" t="n">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="D25" t="n">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="E25" t="n">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4908</v>
+        <v>983</v>
       </c>
       <c r="G25" t="n">
-        <v>34969.19510000001</v>
+        <v>-20164.4112</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>576</v>
+      </c>
+      <c r="K25" t="n">
+        <v>570</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1482,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="C26" t="n">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="D26" t="n">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="E26" t="n">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="F26" t="n">
-        <v>2584.171</v>
+        <v>7812.7155</v>
       </c>
       <c r="G26" t="n">
-        <v>32385.02410000001</v>
+        <v>-12351.69569999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>589</v>
+      </c>
+      <c r="K26" t="n">
+        <v>570</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1526,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C27" t="n">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="D27" t="n">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="E27" t="n">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="F27" t="n">
-        <v>1589.1803</v>
+        <v>12540.0238</v>
       </c>
       <c r="G27" t="n">
-        <v>33974.20440000002</v>
+        <v>188.3281000000061</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>570</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1568,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="C28" t="n">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="D28" t="n">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="E28" t="n">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="F28" t="n">
-        <v>17.9033</v>
+        <v>769.4899</v>
       </c>
       <c r="G28" t="n">
-        <v>33992.10770000002</v>
+        <v>188.3281000000061</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>570</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1610,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="C29" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="D29" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E29" t="n">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="F29" t="n">
-        <v>17.905</v>
+        <v>6094.814</v>
       </c>
       <c r="G29" t="n">
-        <v>33992.10770000002</v>
+        <v>6283.142100000006</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>570</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1652,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C30" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D30" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E30" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F30" t="n">
-        <v>1083.3855</v>
+        <v>318.7</v>
       </c>
       <c r="G30" t="n">
-        <v>32908.72220000002</v>
+        <v>6283.142100000006</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>570</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1694,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C31" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D31" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E31" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F31" t="n">
-        <v>3195.7498</v>
+        <v>545.1516</v>
       </c>
       <c r="G31" t="n">
-        <v>36104.47200000002</v>
+        <v>6828.293700000007</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>570</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1736,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C32" t="n">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="D32" t="n">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E32" t="n">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F32" t="n">
-        <v>1480.195</v>
+        <v>991.0031</v>
       </c>
       <c r="G32" t="n">
-        <v>37584.66700000002</v>
+        <v>5837.290600000007</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>570</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1778,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C33" t="n">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="D33" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E33" t="n">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F33" t="n">
-        <v>6645.6873</v>
+        <v>1529.5652</v>
       </c>
       <c r="G33" t="n">
-        <v>44230.35430000001</v>
+        <v>5837.290600000007</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1802,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>570</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1820,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="C34" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D34" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="E34" t="n">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F34" t="n">
-        <v>519.64</v>
+        <v>208.3943</v>
       </c>
       <c r="G34" t="n">
-        <v>44749.99430000001</v>
+        <v>5837.290600000007</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>570</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1862,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="C35" t="n">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D35" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E35" t="n">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="F35" t="n">
-        <v>30</v>
+        <v>11875.6053</v>
       </c>
       <c r="G35" t="n">
-        <v>44779.99430000001</v>
+        <v>17712.89590000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1886,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>570</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1904,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C36" t="n">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D36" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E36" t="n">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="F36" t="n">
-        <v>575.657</v>
+        <v>7479.644</v>
       </c>
       <c r="G36" t="n">
-        <v>45355.65130000001</v>
+        <v>25192.53990000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>570</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1946,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="C37" t="n">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="D37" t="n">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="E37" t="n">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8</v>
+        <v>1546.7953</v>
       </c>
       <c r="G37" t="n">
-        <v>45356.45130000002</v>
+        <v>26739.33520000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>570</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1988,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C38" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D38" t="n">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="E38" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F38" t="n">
-        <v>888.4926</v>
+        <v>1.8909</v>
       </c>
       <c r="G38" t="n">
-        <v>44467.95870000002</v>
+        <v>26741.22610000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>570</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +2030,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C39" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D39" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E39" t="n">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F39" t="n">
-        <v>338.2064</v>
+        <v>141</v>
       </c>
       <c r="G39" t="n">
-        <v>44806.16510000002</v>
+        <v>26600.22610000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>570</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +2072,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>609</v>
+      </c>
+      <c r="C40" t="n">
         <v>619</v>
-      </c>
-      <c r="C40" t="n">
-        <v>610</v>
       </c>
       <c r="D40" t="n">
         <v>619</v>
       </c>
       <c r="E40" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F40" t="n">
-        <v>1445.195</v>
+        <v>2174.1091</v>
       </c>
       <c r="G40" t="n">
-        <v>43360.97010000002</v>
+        <v>28774.33520000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>570</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2114,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C41" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D41" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E41" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F41" t="n">
-        <v>626.675</v>
+        <v>1176.2034</v>
       </c>
       <c r="G41" t="n">
-        <v>43987.64510000002</v>
+        <v>28774.33520000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2138,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>570</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2156,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C42" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D42" t="n">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="E42" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="F42" t="n">
-        <v>79.9999</v>
+        <v>3353.2787</v>
       </c>
       <c r="G42" t="n">
-        <v>43907.64520000002</v>
+        <v>28774.33520000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>570</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2198,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C43" t="n">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="D43" t="n">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="E43" t="n">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="F43" t="n">
-        <v>600</v>
+        <v>2557.7172</v>
       </c>
       <c r="G43" t="n">
-        <v>43307.64520000002</v>
+        <v>31332.05240000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2222,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>570</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2240,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="C44" t="n">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="D44" t="n">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="E44" t="n">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="F44" t="n">
-        <v>52</v>
+        <v>16943.7378</v>
       </c>
       <c r="G44" t="n">
-        <v>43359.64520000002</v>
+        <v>48275.7902</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>570</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2282,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="C45" t="n">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="D45" t="n">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="E45" t="n">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="F45" t="n">
-        <v>4.90998363</v>
+        <v>3249.0478</v>
       </c>
       <c r="G45" t="n">
-        <v>43364.55518363002</v>
+        <v>51524.838</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>570</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2324,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="C46" t="n">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="D46" t="n">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="E46" t="n">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="F46" t="n">
-        <v>3628.8247</v>
+        <v>1936.7673</v>
       </c>
       <c r="G46" t="n">
-        <v>39735.73048363002</v>
+        <v>49588.0707</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2348,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>570</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,64 +2366,72 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="C47" t="n">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="D47" t="n">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="E47" t="n">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="F47" t="n">
-        <v>1560.2836</v>
+        <v>4346.7515</v>
       </c>
       <c r="G47" t="n">
-        <v>41296.01408363003</v>
+        <v>45241.31920000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>570</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>1.103771929824561</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.017574692442882</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="C48" t="n">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="D48" t="n">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="E48" t="n">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="F48" t="n">
-        <v>191.3344</v>
+        <v>786.6919</v>
       </c>
       <c r="G48" t="n">
-        <v>41104.67968363003</v>
+        <v>44454.62730000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2446,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="C49" t="n">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="D49" t="n">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="E49" t="n">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="F49" t="n">
-        <v>5448.8733</v>
+        <v>3265.0643</v>
       </c>
       <c r="G49" t="n">
-        <v>35655.80638363003</v>
+        <v>41189.56300000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2482,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="C50" t="n">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="D50" t="n">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="E50" t="n">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="F50" t="n">
-        <v>240.3658</v>
+        <v>265.9039</v>
       </c>
       <c r="G50" t="n">
-        <v>35415.44058363003</v>
+        <v>41189.56300000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2518,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="C51" t="n">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="D51" t="n">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="E51" t="n">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="F51" t="n">
-        <v>1513.6591</v>
+        <v>1397.5695</v>
       </c>
       <c r="G51" t="n">
-        <v>35415.44058363003</v>
+        <v>39791.99350000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2554,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="C52" t="n">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="D52" t="n">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="E52" t="n">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="F52" t="n">
-        <v>1027.0884</v>
+        <v>575.8339999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>35415.44058363003</v>
+        <v>39216.15950000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2590,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="C53" t="n">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="D53" t="n">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="E53" t="n">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="F53" t="n">
-        <v>1282.7629</v>
+        <v>4246.9644</v>
       </c>
       <c r="G53" t="n">
-        <v>34132.67768363003</v>
+        <v>34969.19510000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2626,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="C54" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="D54" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E54" t="n">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="F54" t="n">
-        <v>946</v>
+        <v>0.4908</v>
       </c>
       <c r="G54" t="n">
-        <v>35078.67768363003</v>
+        <v>34969.19510000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2662,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="C55" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="D55" t="n">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E55" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>2584.171</v>
       </c>
       <c r="G55" t="n">
-        <v>35028.67768363003</v>
+        <v>32385.02410000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,28 +2698,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C56" t="n">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="D56" t="n">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="E56" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="F56" t="n">
-        <v>558.6026000000001</v>
+        <v>1589.1803</v>
       </c>
       <c r="G56" t="n">
-        <v>35587.28028363003</v>
+        <v>33974.20440000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,22 +2734,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="C57" t="n">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D57" t="n">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="E57" t="n">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="F57" t="n">
-        <v>672</v>
+        <v>17.9033</v>
       </c>
       <c r="G57" t="n">
-        <v>35587.28028363003</v>
+        <v>33992.10770000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2770,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="C58" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D58" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E58" t="n">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="F58" t="n">
-        <v>186</v>
+        <v>17.905</v>
       </c>
       <c r="G58" t="n">
-        <v>35773.28028363003</v>
+        <v>33992.10770000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2806,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C59" t="n">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="D59" t="n">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="E59" t="n">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="F59" t="n">
-        <v>6217.2712</v>
+        <v>1083.3855</v>
       </c>
       <c r="G59" t="n">
-        <v>29556.00908363003</v>
+        <v>32908.72220000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2842,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C60" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="D60" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="E60" t="n">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="F60" t="n">
-        <v>4.3513</v>
+        <v>3195.7498</v>
       </c>
       <c r="G60" t="n">
-        <v>29551.65778363003</v>
+        <v>36104.47200000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,28 +2878,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C61" t="n">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="D61" t="n">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="E61" t="n">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="F61" t="n">
-        <v>265.9039</v>
+        <v>1480.195</v>
       </c>
       <c r="G61" t="n">
-        <v>29817.56168363003</v>
+        <v>37584.66700000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,22 +2914,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="C62" t="n">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D62" t="n">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="E62" t="n">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="F62" t="n">
-        <v>2670.2682</v>
+        <v>6645.6873</v>
       </c>
       <c r="G62" t="n">
-        <v>32487.82988363003</v>
+        <v>44230.35430000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2950,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="C63" t="n">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="D63" t="n">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="E63" t="n">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="F63" t="n">
-        <v>845.6768</v>
+        <v>519.64</v>
       </c>
       <c r="G63" t="n">
-        <v>31642.15308363003</v>
+        <v>44749.99430000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,28 +2986,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="C64" t="n">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="D64" t="n">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="E64" t="n">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="F64" t="n">
-        <v>745.2933</v>
+        <v>30</v>
       </c>
       <c r="G64" t="n">
-        <v>30896.85978363003</v>
+        <v>44779.99430000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +3022,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="C65" t="n">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="D65" t="n">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="E65" t="n">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="F65" t="n">
-        <v>827.4139</v>
+        <v>575.657</v>
       </c>
       <c r="G65" t="n">
-        <v>30069.44588363003</v>
+        <v>45355.65130000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +3058,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="C66" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="D66" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="E66" t="n">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="F66" t="n">
-        <v>1109.9206</v>
+        <v>0.8</v>
       </c>
       <c r="G66" t="n">
-        <v>31179.36648363003</v>
+        <v>45356.45130000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,22 +3094,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="C67" t="n">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="D67" t="n">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="E67" t="n">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="F67" t="n">
-        <v>10215.6659</v>
+        <v>888.4926</v>
       </c>
       <c r="G67" t="n">
-        <v>20963.70058363003</v>
+        <v>44467.95870000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +3130,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="C68" t="n">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="D68" t="n">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="E68" t="n">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="F68" t="n">
-        <v>1030.9283</v>
+        <v>338.2064</v>
       </c>
       <c r="G68" t="n">
-        <v>19932.77228363003</v>
+        <v>44806.16510000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +3166,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="C69" t="n">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="D69" t="n">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="E69" t="n">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="F69" t="n">
-        <v>1075.6293</v>
+        <v>1445.195</v>
       </c>
       <c r="G69" t="n">
-        <v>18857.14298363003</v>
+        <v>43360.97010000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,28 +3202,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C70" t="n">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="D70" t="n">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="E70" t="n">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="F70" t="n">
-        <v>362.4599</v>
+        <v>626.675</v>
       </c>
       <c r="G70" t="n">
-        <v>19219.60288363003</v>
+        <v>43987.64510000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +3238,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="C71" t="n">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D71" t="n">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="E71" t="n">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="F71" t="n">
-        <v>1100.8934</v>
+        <v>79.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>18118.70948363003</v>
+        <v>43907.64520000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,28 +3274,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C72" t="n">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="D72" t="n">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="E72" t="n">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="F72" t="n">
-        <v>621.3728</v>
+        <v>600</v>
       </c>
       <c r="G72" t="n">
-        <v>17497.33668363003</v>
+        <v>43307.64520000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,22 +3310,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="C73" t="n">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="D73" t="n">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="E73" t="n">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="F73" t="n">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="G73" t="n">
-        <v>17607.33668363003</v>
+        <v>43359.64520000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3346,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C74" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="D74" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="E74" t="n">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="F74" t="n">
-        <v>469.4095</v>
+        <v>4.90998363</v>
       </c>
       <c r="G74" t="n">
-        <v>17607.33668363003</v>
+        <v>43364.55518363002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3382,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="C75" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D75" t="n">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E75" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F75" t="n">
-        <v>1012</v>
+        <v>3628.8247</v>
       </c>
       <c r="G75" t="n">
-        <v>16595.33668363003</v>
+        <v>39735.73048363002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3418,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C76" t="n">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="D76" t="n">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="E76" t="n">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F76" t="n">
-        <v>870.7238</v>
+        <v>1560.2836</v>
       </c>
       <c r="G76" t="n">
-        <v>17466.06048363003</v>
+        <v>41296.01408363003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,28 +3454,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C77" t="n">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D77" t="n">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="E77" t="n">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F77" t="n">
-        <v>432.63</v>
+        <v>191.3344</v>
       </c>
       <c r="G77" t="n">
-        <v>17033.43048363003</v>
+        <v>41104.67968363003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3490,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C78" t="n">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D78" t="n">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="E78" t="n">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F78" t="n">
-        <v>501</v>
+        <v>5448.8733</v>
       </c>
       <c r="G78" t="n">
-        <v>17534.43048363003</v>
+        <v>35655.80638363003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,38 +3526,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C79" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D79" t="n">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="E79" t="n">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F79" t="n">
-        <v>867</v>
+        <v>240.3658</v>
       </c>
       <c r="G79" t="n">
-        <v>18401.43048363003</v>
+        <v>35415.44058363003</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="J79" t="n">
-        <v>595</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3252,22 +3562,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C80" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D80" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E80" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F80" t="n">
-        <v>740.7652</v>
+        <v>1513.6591</v>
       </c>
       <c r="G80" t="n">
-        <v>18401.43048363003</v>
+        <v>35415.44058363003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3277,11 +3587,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3304,10 +3610,10 @@
         <v>597</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>1027.0884</v>
       </c>
       <c r="G81" t="n">
-        <v>18402.43048363003</v>
+        <v>35415.44058363003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3317,11 +3623,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3332,22 +3634,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C82" t="n">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D82" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E82" t="n">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F82" t="n">
-        <v>30</v>
+        <v>1282.7629</v>
       </c>
       <c r="G82" t="n">
-        <v>18432.43048363003</v>
+        <v>34132.67768363003</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3357,11 +3659,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3372,36 +3670,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C83" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D83" t="n">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E83" t="n">
         <v>595</v>
       </c>
       <c r="F83" t="n">
-        <v>131</v>
+        <v>946</v>
       </c>
       <c r="G83" t="n">
-        <v>18563.43048363003</v>
+        <v>35078.67768363003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3412,36 +3706,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C84" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D84" t="n">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E84" t="n">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F84" t="n">
-        <v>1378.4746</v>
+        <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>18563.43048363003</v>
+        <v>35028.67768363003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3452,36 +3742,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C85" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D85" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E85" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F85" t="n">
-        <v>227</v>
+        <v>558.6026000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>18563.43048363003</v>
+        <v>35587.28028363003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3492,36 +3778,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C86" t="n">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D86" t="n">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E86" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F86" t="n">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G86" t="n">
-        <v>19238.43048363003</v>
+        <v>35587.28028363003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3532,36 +3814,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C87" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D87" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E87" t="n">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F87" t="n">
-        <v>428.6505</v>
+        <v>186</v>
       </c>
       <c r="G87" t="n">
-        <v>19667.08098363003</v>
+        <v>35773.28028363003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3572,36 +3850,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C88" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D88" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E88" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>6217.2712</v>
       </c>
       <c r="G88" t="n">
-        <v>19666.08098363003</v>
+        <v>29556.00908363003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3612,36 +3886,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C89" t="n">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D89" t="n">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E89" t="n">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>4.3513</v>
       </c>
       <c r="G89" t="n">
-        <v>19667.08098363003</v>
+        <v>29551.65778363003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3652,22 +3922,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C90" t="n">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D90" t="n">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E90" t="n">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F90" t="n">
-        <v>1203.7176</v>
+        <v>265.9039</v>
       </c>
       <c r="G90" t="n">
-        <v>20870.79858363002</v>
+        <v>29817.56168363003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3677,11 +3947,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3692,62 +3958,58 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C91" t="n">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="D91" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E91" t="n">
         <v>592</v>
       </c>
       <c r="F91" t="n">
-        <v>40</v>
+        <v>2670.2682</v>
       </c>
       <c r="G91" t="n">
-        <v>20830.79858363002</v>
+        <v>32487.82988363003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
-        <v>1.088586030664395</v>
-      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C92" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D92" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E92" t="n">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F92" t="n">
-        <v>160</v>
+        <v>845.6768</v>
       </c>
       <c r="G92" t="n">
-        <v>20990.79858363002</v>
+        <v>31642.15308363003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3768,22 +4030,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C93" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D93" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E93" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>745.2933</v>
       </c>
       <c r="G93" t="n">
-        <v>20989.79858363002</v>
+        <v>30896.85978363003</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3804,22 +4066,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C94" t="n">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D94" t="n">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E94" t="n">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F94" t="n">
-        <v>169.7854</v>
+        <v>827.4139</v>
       </c>
       <c r="G94" t="n">
-        <v>21159.58398363003</v>
+        <v>30069.44588363003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3840,22 +4102,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C95" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D95" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E95" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F95" t="n">
-        <v>4841</v>
+        <v>1109.9206</v>
       </c>
       <c r="G95" t="n">
-        <v>21159.58398363003</v>
+        <v>31179.36648363003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3876,22 +4138,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C96" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D96" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E96" t="n">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="F96" t="n">
-        <v>313.5373</v>
+        <v>10215.6659</v>
       </c>
       <c r="G96" t="n">
-        <v>21473.12128363003</v>
+        <v>20963.70058363003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3912,22 +4174,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C97" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D97" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E97" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F97" t="n">
-        <v>225.9627</v>
+        <v>1030.9283</v>
       </c>
       <c r="G97" t="n">
-        <v>21473.12128363003</v>
+        <v>19932.77228363003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3948,22 +4210,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C98" t="n">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D98" t="n">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E98" t="n">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F98" t="n">
-        <v>1920.0465</v>
+        <v>1075.6293</v>
       </c>
       <c r="G98" t="n">
-        <v>21473.12128363003</v>
+        <v>18857.14298363003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3984,28 +4246,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C99" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D99" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E99" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F99" t="n">
-        <v>755.4991</v>
+        <v>362.4599</v>
       </c>
       <c r="G99" t="n">
-        <v>22228.62038363003</v>
+        <v>19219.60288363003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4020,22 +4282,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="C100" t="n">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D100" t="n">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E100" t="n">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="F100" t="n">
-        <v>153.138</v>
+        <v>1100.8934</v>
       </c>
       <c r="G100" t="n">
-        <v>22381.75838363003</v>
+        <v>18118.70948363003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4056,22 +4318,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C101" t="n">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D101" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E101" t="n">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F101" t="n">
-        <v>444.5373</v>
+        <v>621.3728</v>
       </c>
       <c r="G101" t="n">
-        <v>22381.75838363003</v>
+        <v>17497.33668363003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4092,22 +4354,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C102" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D102" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E102" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F102" t="n">
-        <v>1441.572</v>
+        <v>110</v>
       </c>
       <c r="G102" t="n">
-        <v>20940.18638363003</v>
+        <v>17607.33668363003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4128,22 +4390,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C103" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D103" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E103" t="n">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F103" t="n">
-        <v>11</v>
+        <v>469.4095</v>
       </c>
       <c r="G103" t="n">
-        <v>20951.18638363003</v>
+        <v>17607.33668363003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4164,22 +4426,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="C104" t="n">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="D104" t="n">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="E104" t="n">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="F104" t="n">
-        <v>576.5</v>
+        <v>1012</v>
       </c>
       <c r="G104" t="n">
-        <v>20951.18638363003</v>
+        <v>16595.33668363003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4200,22 +4462,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C105" t="n">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D105" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E105" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F105" t="n">
-        <v>5861.3755</v>
+        <v>870.7238</v>
       </c>
       <c r="G105" t="n">
-        <v>26812.56188363003</v>
+        <v>17466.06048363003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4236,28 +4498,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="C106" t="n">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="D106" t="n">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="E106" t="n">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="F106" t="n">
-        <v>1604.469</v>
+        <v>432.63</v>
       </c>
       <c r="G106" t="n">
-        <v>28417.03088363003</v>
+        <v>17033.43048363003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4272,28 +4534,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C107" t="n">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="D107" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E107" t="n">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="F107" t="n">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="G107" t="n">
-        <v>28417.03088363003</v>
+        <v>17534.43048363003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4308,28 +4570,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="C108" t="n">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="D108" t="n">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="E108" t="n">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="F108" t="n">
-        <v>471</v>
+        <v>867</v>
       </c>
       <c r="G108" t="n">
-        <v>28417.03088363003</v>
+        <v>18401.43048363003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4344,28 +4606,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="C109" t="n">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="D109" t="n">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="E109" t="n">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="F109" t="n">
-        <v>1983.9998</v>
+        <v>740.7652</v>
       </c>
       <c r="G109" t="n">
-        <v>28417.03088363003</v>
+        <v>18401.43048363003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4380,28 +4642,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C110" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D110" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E110" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F110" t="n">
-        <v>1316</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>28417.03088363003</v>
+        <v>18402.43048363003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4416,22 +4678,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C111" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D111" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="E111" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F111" t="n">
-        <v>1266.9999</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>28417.03088363003</v>
+        <v>18432.43048363003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4452,22 +4714,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C112" t="n">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D112" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E112" t="n">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F112" t="n">
-        <v>272.9999</v>
+        <v>131</v>
       </c>
       <c r="G112" t="n">
-        <v>28417.03088363003</v>
+        <v>18563.43048363003</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4488,28 +4750,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C113" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D113" t="n">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E113" t="n">
         <v>603</v>
       </c>
       <c r="F113" t="n">
-        <v>743.4342</v>
+        <v>1378.4746</v>
       </c>
       <c r="G113" t="n">
-        <v>27673.59668363003</v>
+        <v>18563.43048363003</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4524,22 +4786,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C114" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D114" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E114" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F114" t="n">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="G114" t="n">
-        <v>27673.59668363003</v>
+        <v>18563.43048363003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4560,35 +4822,31 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C115" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D115" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E115" t="n">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F115" t="n">
-        <v>53.49</v>
+        <v>675</v>
       </c>
       <c r="G115" t="n">
-        <v>27673.59668363003</v>
+        <v>19238.43048363003</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>610</v>
-      </c>
-      <c r="K115" t="n">
-        <v>610</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4600,22 +4858,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C116" t="n">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D116" t="n">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E116" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F116" t="n">
-        <v>399.1109</v>
+        <v>428.6505</v>
       </c>
       <c r="G116" t="n">
-        <v>28072.70758363003</v>
+        <v>19667.08098363003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4624,14 +4882,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>610</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4642,38 +4894,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C117" t="n">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D117" t="n">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E117" t="n">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F117" t="n">
-        <v>332.44</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>28072.70758363003</v>
+        <v>19666.08098363003</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>610</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4684,38 +4930,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C118" t="n">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D118" t="n">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E118" t="n">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F118" t="n">
-        <v>1440.62</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>28072.70758363003</v>
+        <v>19667.08098363003</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>610</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4726,38 +4966,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C119" t="n">
         <v>607</v>
       </c>
       <c r="D119" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E119" t="n">
         <v>607</v>
       </c>
       <c r="F119" t="n">
-        <v>469.5174</v>
+        <v>1203.7176</v>
       </c>
       <c r="G119" t="n">
-        <v>27603.19018363003</v>
+        <v>20870.79858363002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>610</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4768,40 +5002,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C120" t="n">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="D120" t="n">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E120" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F120" t="n">
-        <v>2881.0631</v>
+        <v>40</v>
       </c>
       <c r="G120" t="n">
-        <v>30484.25328363003</v>
+        <v>20830.79858363002</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>607</v>
-      </c>
-      <c r="K120" t="n">
-        <v>610</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4812,40 +5038,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C121" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D121" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E121" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F121" t="n">
-        <v>2228.2273</v>
+        <v>160</v>
       </c>
       <c r="G121" t="n">
-        <v>28256.02598363003</v>
+        <v>20990.79858363002</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>608</v>
-      </c>
-      <c r="K121" t="n">
-        <v>610</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4856,44 +5074,1080 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>596</v>
+      </c>
+      <c r="C122" t="n">
+        <v>596</v>
+      </c>
+      <c r="D122" t="n">
+        <v>596</v>
+      </c>
+      <c r="E122" t="n">
+        <v>596</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>20989.79858363002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>601</v>
+      </c>
+      <c r="C123" t="n">
+        <v>601</v>
+      </c>
+      <c r="D123" t="n">
+        <v>601</v>
+      </c>
+      <c r="E123" t="n">
+        <v>601</v>
+      </c>
+      <c r="F123" t="n">
+        <v>169.7854</v>
+      </c>
+      <c r="G123" t="n">
+        <v>21159.58398363003</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>600</v>
+      </c>
+      <c r="C124" t="n">
+        <v>601</v>
+      </c>
+      <c r="D124" t="n">
+        <v>601</v>
+      </c>
+      <c r="E124" t="n">
+        <v>600</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4841</v>
+      </c>
+      <c r="G124" t="n">
+        <v>21159.58398363003</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>602</v>
+      </c>
+      <c r="C125" t="n">
+        <v>602</v>
+      </c>
+      <c r="D125" t="n">
+        <v>602</v>
+      </c>
+      <c r="E125" t="n">
+        <v>602</v>
+      </c>
+      <c r="F125" t="n">
+        <v>313.5373</v>
+      </c>
+      <c r="G125" t="n">
+        <v>21473.12128363003</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>602</v>
+      </c>
+      <c r="C126" t="n">
+        <v>602</v>
+      </c>
+      <c r="D126" t="n">
+        <v>602</v>
+      </c>
+      <c r="E126" t="n">
+        <v>602</v>
+      </c>
+      <c r="F126" t="n">
+        <v>225.9627</v>
+      </c>
+      <c r="G126" t="n">
+        <v>21473.12128363003</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>602</v>
+      </c>
+      <c r="C127" t="n">
+        <v>602</v>
+      </c>
+      <c r="D127" t="n">
+        <v>602</v>
+      </c>
+      <c r="E127" t="n">
+        <v>602</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1920.0465</v>
+      </c>
+      <c r="G127" t="n">
+        <v>21473.12128363003</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>604</v>
+      </c>
+      <c r="C128" t="n">
+        <v>604</v>
+      </c>
+      <c r="D128" t="n">
+        <v>604</v>
+      </c>
+      <c r="E128" t="n">
+        <v>604</v>
+      </c>
+      <c r="F128" t="n">
+        <v>755.4991</v>
+      </c>
+      <c r="G128" t="n">
+        <v>22228.62038363003</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>605</v>
+      </c>
+      <c r="C129" t="n">
+        <v>605</v>
+      </c>
+      <c r="D129" t="n">
+        <v>605</v>
+      </c>
+      <c r="E129" t="n">
+        <v>605</v>
+      </c>
+      <c r="F129" t="n">
+        <v>153.138</v>
+      </c>
+      <c r="G129" t="n">
+        <v>22381.75838363003</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>605</v>
+      </c>
+      <c r="C130" t="n">
+        <v>605</v>
+      </c>
+      <c r="D130" t="n">
+        <v>605</v>
+      </c>
+      <c r="E130" t="n">
+        <v>605</v>
+      </c>
+      <c r="F130" t="n">
+        <v>444.5373</v>
+      </c>
+      <c r="G130" t="n">
+        <v>22381.75838363003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>598</v>
+      </c>
+      <c r="C131" t="n">
+        <v>598</v>
+      </c>
+      <c r="D131" t="n">
+        <v>598</v>
+      </c>
+      <c r="E131" t="n">
+        <v>598</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1441.572</v>
+      </c>
+      <c r="G131" t="n">
+        <v>20940.18638363003</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>601</v>
+      </c>
+      <c r="C132" t="n">
+        <v>605</v>
+      </c>
+      <c r="D132" t="n">
+        <v>605</v>
+      </c>
+      <c r="E132" t="n">
+        <v>601</v>
+      </c>
+      <c r="F132" t="n">
+        <v>11</v>
+      </c>
+      <c r="G132" t="n">
+        <v>20951.18638363003</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>604</v>
+      </c>
+      <c r="C133" t="n">
+        <v>605</v>
+      </c>
+      <c r="D133" t="n">
+        <v>605</v>
+      </c>
+      <c r="E133" t="n">
+        <v>604</v>
+      </c>
+      <c r="F133" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="G133" t="n">
+        <v>20951.18638363003</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>605</v>
+      </c>
+      <c r="C134" t="n">
+        <v>610</v>
+      </c>
+      <c r="D134" t="n">
+        <v>611</v>
+      </c>
+      <c r="E134" t="n">
+        <v>605</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5861.3755</v>
+      </c>
+      <c r="G134" t="n">
+        <v>26812.56188363003</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>611</v>
+      </c>
+      <c r="C135" t="n">
+        <v>611</v>
+      </c>
+      <c r="D135" t="n">
+        <v>611</v>
+      </c>
+      <c r="E135" t="n">
+        <v>611</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1604.469</v>
+      </c>
+      <c r="G135" t="n">
+        <v>28417.03088363003</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>611</v>
+      </c>
+      <c r="C136" t="n">
+        <v>611</v>
+      </c>
+      <c r="D136" t="n">
+        <v>611</v>
+      </c>
+      <c r="E136" t="n">
+        <v>611</v>
+      </c>
+      <c r="F136" t="n">
+        <v>524</v>
+      </c>
+      <c r="G136" t="n">
+        <v>28417.03088363003</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>611</v>
+      </c>
+      <c r="C137" t="n">
+        <v>611</v>
+      </c>
+      <c r="D137" t="n">
+        <v>611</v>
+      </c>
+      <c r="E137" t="n">
+        <v>611</v>
+      </c>
+      <c r="F137" t="n">
+        <v>471</v>
+      </c>
+      <c r="G137" t="n">
+        <v>28417.03088363003</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>611</v>
+      </c>
+      <c r="C138" t="n">
+        <v>611</v>
+      </c>
+      <c r="D138" t="n">
+        <v>611</v>
+      </c>
+      <c r="E138" t="n">
+        <v>611</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1983.9998</v>
+      </c>
+      <c r="G138" t="n">
+        <v>28417.03088363003</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>611</v>
+      </c>
+      <c r="C139" t="n">
+        <v>611</v>
+      </c>
+      <c r="D139" t="n">
+        <v>611</v>
+      </c>
+      <c r="E139" t="n">
+        <v>611</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G139" t="n">
+        <v>28417.03088363003</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>611</v>
+      </c>
+      <c r="C140" t="n">
+        <v>611</v>
+      </c>
+      <c r="D140" t="n">
+        <v>611</v>
+      </c>
+      <c r="E140" t="n">
+        <v>611</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1266.9999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>28417.03088363003</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>611</v>
+      </c>
+      <c r="C141" t="n">
+        <v>611</v>
+      </c>
+      <c r="D141" t="n">
+        <v>611</v>
+      </c>
+      <c r="E141" t="n">
+        <v>611</v>
+      </c>
+      <c r="F141" t="n">
+        <v>272.9999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>28417.03088363003</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>603</v>
+      </c>
+      <c r="C142" t="n">
+        <v>610</v>
+      </c>
+      <c r="D142" t="n">
+        <v>610</v>
+      </c>
+      <c r="E142" t="n">
+        <v>603</v>
+      </c>
+      <c r="F142" t="n">
+        <v>743.4342</v>
+      </c>
+      <c r="G142" t="n">
+        <v>27673.59668363003</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>610</v>
+      </c>
+      <c r="C143" t="n">
+        <v>610</v>
+      </c>
+      <c r="D143" t="n">
+        <v>610</v>
+      </c>
+      <c r="E143" t="n">
+        <v>610</v>
+      </c>
+      <c r="F143" t="n">
+        <v>135</v>
+      </c>
+      <c r="G143" t="n">
+        <v>27673.59668363003</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>610</v>
+      </c>
+      <c r="C144" t="n">
+        <v>610</v>
+      </c>
+      <c r="D144" t="n">
+        <v>610</v>
+      </c>
+      <c r="E144" t="n">
+        <v>610</v>
+      </c>
+      <c r="F144" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G144" t="n">
+        <v>27673.59668363003</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>610</v>
+      </c>
+      <c r="C145" t="n">
+        <v>611</v>
+      </c>
+      <c r="D145" t="n">
+        <v>611</v>
+      </c>
+      <c r="E145" t="n">
+        <v>610</v>
+      </c>
+      <c r="F145" t="n">
+        <v>399.1109</v>
+      </c>
+      <c r="G145" t="n">
+        <v>28072.70758363003</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>611</v>
+      </c>
+      <c r="C146" t="n">
+        <v>611</v>
+      </c>
+      <c r="D146" t="n">
+        <v>611</v>
+      </c>
+      <c r="E146" t="n">
+        <v>611</v>
+      </c>
+      <c r="F146" t="n">
+        <v>332.44</v>
+      </c>
+      <c r="G146" t="n">
+        <v>28072.70758363003</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>611</v>
+      </c>
+      <c r="C147" t="n">
+        <v>611</v>
+      </c>
+      <c r="D147" t="n">
+        <v>611</v>
+      </c>
+      <c r="E147" t="n">
+        <v>611</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1440.62</v>
+      </c>
+      <c r="G147" t="n">
+        <v>28072.70758363003</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>608</v>
+      </c>
+      <c r="C148" t="n">
         <v>607</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D148" t="n">
+        <v>608</v>
+      </c>
+      <c r="E148" t="n">
+        <v>607</v>
+      </c>
+      <c r="F148" t="n">
+        <v>469.5174</v>
+      </c>
+      <c r="G148" t="n">
+        <v>27603.19018363003</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>608</v>
+      </c>
+      <c r="C149" t="n">
+        <v>608</v>
+      </c>
+      <c r="D149" t="n">
+        <v>608</v>
+      </c>
+      <c r="E149" t="n">
+        <v>598</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2881.0631</v>
+      </c>
+      <c r="G149" t="n">
+        <v>30484.25328363003</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>599</v>
+      </c>
+      <c r="C150" t="n">
+        <v>607</v>
+      </c>
+      <c r="D150" t="n">
+        <v>609</v>
+      </c>
+      <c r="E150" t="n">
+        <v>599</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2228.2273</v>
+      </c>
+      <c r="G150" t="n">
+        <v>28256.02598363003</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>607</v>
+      </c>
+      <c r="C151" t="n">
         <v>610</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D151" t="n">
         <v>610</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E151" t="n">
         <v>607</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F151" t="n">
         <v>528.9999</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G151" t="n">
         <v>28785.02588363003</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>607</v>
-      </c>
-      <c r="K122" t="n">
-        <v>610</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-27195.34149999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-26317.6623</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="J3" t="n">
         <v>570</v>
       </c>
-      <c r="K3" t="n">
-        <v>570</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-25217.6623</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="J4" t="n">
-        <v>571</v>
-      </c>
-      <c r="K4" t="n">
         <v>570</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-21843.6623</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J5" t="n">
-        <v>578</v>
-      </c>
-      <c r="K5" t="n">
         <v>570</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,15 @@
         <v>-21843.6623</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>579</v>
-      </c>
-      <c r="K6" t="n">
-        <v>570</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +636,15 @@
         <v>-21843.6623</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>579</v>
-      </c>
-      <c r="K7" t="n">
-        <v>570</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +669,15 @@
         <v>-21643.6623</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>579</v>
-      </c>
-      <c r="K8" t="n">
-        <v>570</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +702,15 @@
         <v>-21643.6623</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>580</v>
-      </c>
-      <c r="K9" t="n">
-        <v>570</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +735,15 @@
         <v>-21743.6623</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>580</v>
-      </c>
-      <c r="K10" t="n">
-        <v>570</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +768,21 @@
         <v>-21193.6623</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>579</v>
       </c>
-      <c r="K11" t="n">
-        <v>570</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +807,21 @@
         <v>-21193.6623</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>580</v>
       </c>
-      <c r="K12" t="n">
-        <v>570</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +846,21 @@
         <v>-21193.6623</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>580</v>
       </c>
-      <c r="K13" t="n">
-        <v>570</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +885,19 @@
         <v>-21190.6623</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>580</v>
-      </c>
-      <c r="K14" t="n">
-        <v>570</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +922,19 @@
         <v>-20397.4706</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>585</v>
-      </c>
-      <c r="K15" t="n">
-        <v>570</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +959,19 @@
         <v>-20513.4706</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>588</v>
-      </c>
-      <c r="K16" t="n">
-        <v>570</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +996,19 @@
         <v>-20513.4706</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>587</v>
-      </c>
-      <c r="K17" t="n">
-        <v>570</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1033,19 @@
         <v>-20085.4706</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>587</v>
-      </c>
-      <c r="K18" t="n">
-        <v>570</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1192,26 +1070,19 @@
         <v>-22499.088</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>588</v>
-      </c>
-      <c r="K19" t="n">
-        <v>570</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,26 +1107,21 @@
         <v>-22499.088</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>587</v>
       </c>
-      <c r="K20" t="n">
-        <v>570</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1280,26 +1146,21 @@
         <v>-24317.9431</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>587</v>
       </c>
-      <c r="K21" t="n">
-        <v>570</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1324,26 +1185,21 @@
         <v>-20181.4112</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>585</v>
       </c>
-      <c r="K22" t="n">
-        <v>570</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1368,26 +1224,21 @@
         <v>-21147.4112</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>589</v>
       </c>
-      <c r="K23" t="n">
-        <v>570</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1412,26 +1263,21 @@
         <v>-21147.4112</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>576</v>
       </c>
-      <c r="K24" t="n">
-        <v>570</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1456,26 +1302,21 @@
         <v>-20164.4112</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>576</v>
       </c>
-      <c r="K25" t="n">
-        <v>570</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1500,26 +1341,21 @@
         <v>-12351.69569999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>589</v>
       </c>
-      <c r="K26" t="n">
-        <v>570</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1544,24 +1380,21 @@
         <v>188.3281000000061</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>570</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1586,24 +1419,21 @@
         <v>188.3281000000061</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>570</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1630,22 +1460,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>570</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1672,22 +1497,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>570</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1714,22 +1534,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>570</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1756,22 +1571,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>570</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1798,22 +1608,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>570</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1840,22 +1645,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>570</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1882,22 +1682,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>570</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1924,22 +1719,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>570</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1966,22 +1756,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>570</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2008,22 +1793,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>570</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2050,22 +1830,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>570</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2092,22 +1867,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>570</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2134,22 +1904,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>570</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2176,22 +1941,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>570</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2218,22 +1978,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>570</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2260,22 +2015,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>570</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2302,22 +2052,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>570</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2344,22 +2089,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>570</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2386,24 +2126,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>570</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1.103771929824561</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.017574692442882</v>
-      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2430,16 +2163,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2466,16 +2200,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2502,16 +2237,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2538,16 +2274,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2574,16 +2311,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2610,16 +2348,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2646,16 +2385,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2682,16 +2422,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2718,16 +2459,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2754,16 +2496,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2790,16 +2533,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2826,16 +2570,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2862,16 +2607,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2898,16 +2644,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2934,16 +2681,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2970,16 +2718,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3006,16 +2755,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3042,16 +2792,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3076,18 +2827,19 @@
         <v>45356.45130000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3114,16 +2866,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3150,16 +2903,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3186,16 +2940,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3222,16 +2977,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3258,16 +3014,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3294,16 +3051,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3330,16 +3088,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3366,16 +3125,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3402,16 +3162,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3438,16 +3199,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3474,16 +3236,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3510,16 +3273,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3546,16 +3310,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3582,16 +3347,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3618,16 +3384,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3654,16 +3421,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3690,16 +3458,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3726,16 +3495,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3762,16 +3532,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3798,16 +3569,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3834,16 +3606,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3870,16 +3643,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3906,16 +3680,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3942,16 +3717,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3978,16 +3754,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4014,16 +3791,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4050,16 +3828,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4086,16 +3865,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4122,16 +3902,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4158,16 +3939,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4194,16 +3976,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4230,16 +4013,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4266,16 +4050,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4302,16 +4087,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4338,16 +4124,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4374,16 +4161,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4410,16 +4198,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4446,16 +4235,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4482,16 +4272,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4518,16 +4309,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4554,16 +4346,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4590,16 +4383,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4626,16 +4420,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4662,16 +4457,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4698,16 +4494,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4734,16 +4531,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4770,16 +4568,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4806,16 +4605,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4842,16 +4642,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4878,16 +4679,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4914,16 +4716,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4950,16 +4753,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4986,16 +4790,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5022,16 +4827,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5058,16 +4864,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5094,16 +4901,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5130,16 +4938,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5166,16 +4975,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5202,16 +5012,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5238,16 +5049,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5274,16 +5086,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5310,16 +5123,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5346,16 +5160,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5382,16 +5197,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5418,16 +5234,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5452,18 +5269,17 @@
         <v>20951.18638363003</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5488,18 +5304,15 @@
         <v>20951.18638363003</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5524,18 +5337,15 @@
         <v>26812.56188363003</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5562,16 +5372,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5596,18 +5403,15 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5632,18 +5436,15 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5668,18 +5469,15 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5704,18 +5502,15 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5740,18 +5535,15 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5776,18 +5568,15 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5812,18 +5601,15 @@
         <v>27673.59668363003</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5848,18 +5634,15 @@
         <v>27673.59668363003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5884,18 +5667,15 @@
         <v>27673.59668363003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5920,18 +5700,15 @@
         <v>28072.70758363003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5958,16 +5735,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5994,16 +5768,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6030,16 +5801,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6066,16 +5834,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6100,18 +5865,15 @@
         <v>28256.02598363003</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6138,18 +5900,15 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-27195.34149999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-26317.6623</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>570</v>
@@ -521,11 +521,9 @@
         <v>-25217.6623</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>570</v>
       </c>
@@ -562,11 +560,9 @@
         <v>-21843.6623</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>570</v>
       </c>
@@ -603,11 +599,19 @@
         <v>-21843.6623</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>579</v>
+      </c>
+      <c r="J6" t="n">
+        <v>570</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,11 +640,19 @@
         <v>-21843.6623</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>579</v>
+      </c>
+      <c r="J7" t="n">
+        <v>570</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,11 +681,19 @@
         <v>-21643.6623</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>579</v>
+      </c>
+      <c r="J8" t="n">
+        <v>570</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,11 +722,19 @@
         <v>-21643.6623</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>580</v>
+      </c>
+      <c r="J9" t="n">
+        <v>570</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -735,11 +763,19 @@
         <v>-21743.6623</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>580</v>
+      </c>
+      <c r="J10" t="n">
+        <v>570</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,15 +804,17 @@
         <v>-21193.6623</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>579</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>570</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -807,12 +845,14 @@
         <v>-21193.6623</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>580</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>570</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -846,12 +886,14 @@
         <v>-21193.6623</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>580</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>570</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -885,10 +927,14 @@
         <v>-21190.6623</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>580</v>
+      </c>
+      <c r="J14" t="n">
+        <v>570</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -925,7 +971,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>570</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -962,7 +1010,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>570</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -999,7 +1049,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>570</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1036,7 +1088,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>570</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1073,7 +1127,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>570</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1107,12 +1163,12 @@
         <v>-22499.088</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>587</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>570</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1146,12 +1202,12 @@
         <v>-24317.9431</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>587</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>570</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1185,12 +1241,12 @@
         <v>-20181.4112</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>585</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>570</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1224,12 +1280,12 @@
         <v>-21147.4112</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>589</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>570</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1263,12 +1319,12 @@
         <v>-21147.4112</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>576</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>570</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,12 +1358,14 @@
         <v>-20164.4112</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>576</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>570</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1341,12 +1399,14 @@
         <v>-12351.69569999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>589</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>570</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1380,12 +1440,14 @@
         <v>188.3281000000061</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>590</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>570</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1419,12 +1481,12 @@
         <v>188.3281000000061</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>593</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>570</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1461,7 +1523,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>570</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1498,7 +1562,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>570</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1535,7 +1601,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>570</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1572,7 +1640,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>570</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1609,7 +1679,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>570</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1646,7 +1718,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>570</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1683,7 +1757,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>570</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,7 +1796,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>570</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1757,7 +1835,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>570</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1794,7 +1874,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>570</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1831,7 +1913,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>570</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1868,7 +1952,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>570</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1905,7 +1991,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>570</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,7 +2030,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>570</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1979,7 +2069,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>570</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2016,7 +2108,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>570</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,7 +2147,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>570</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2090,7 +2186,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>570</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2127,7 +2225,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>570</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,7 +2264,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>570</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,7 +2303,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>570</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2238,7 +2342,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>570</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,7 +2381,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>570</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2312,7 +2420,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>570</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2349,7 +2459,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>570</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2386,7 +2498,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>570</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2423,7 +2537,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>570</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2460,7 +2576,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>570</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2494,19 +2612,23 @@
         <v>33992.10770000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>570</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>1.070438596491228</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.017574692442882</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2535,11 +2657,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2572,11 +2690,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2609,11 +2723,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2646,11 +2756,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2683,11 +2789,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2716,15 +2818,11 @@
         <v>44749.99430000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2753,15 +2851,11 @@
         <v>44779.99430000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2790,15 +2884,11 @@
         <v>45355.65130000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2827,15 +2917,11 @@
         <v>45356.45130000002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2864,15 +2950,11 @@
         <v>44467.95870000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2901,15 +2983,11 @@
         <v>44806.16510000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2938,15 +3016,11 @@
         <v>43360.97010000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2975,15 +3049,11 @@
         <v>43987.64510000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3012,15 +3082,11 @@
         <v>43907.64520000002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3049,15 +3115,11 @@
         <v>43307.64520000002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3086,15 +3148,11 @@
         <v>43359.64520000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +3185,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3164,11 +3218,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3201,11 +3251,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3238,11 +3284,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +3317,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3312,11 +3350,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3349,11 +3383,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3416,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3419,15 +3445,11 @@
         <v>34132.67768363003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3456,15 +3478,11 @@
         <v>35078.67768363003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3493,15 +3511,11 @@
         <v>35028.67768363003</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3530,15 +3544,11 @@
         <v>35587.28028363003</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3567,15 +3577,11 @@
         <v>35587.28028363003</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3604,15 +3610,11 @@
         <v>35773.28028363003</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3641,15 +3643,11 @@
         <v>29556.00908363003</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3678,15 +3676,11 @@
         <v>29551.65778363003</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3715,15 +3709,11 @@
         <v>29817.56168363003</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3752,15 +3742,11 @@
         <v>32487.82988363003</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3789,15 +3775,11 @@
         <v>31642.15308363003</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3826,15 +3808,11 @@
         <v>30896.85978363003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3863,15 +3841,11 @@
         <v>30069.44588363003</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3900,15 +3874,11 @@
         <v>31179.36648363003</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3937,15 +3907,11 @@
         <v>20963.70058363003</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3978,11 +3944,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4011,15 +3973,11 @@
         <v>18857.14298363003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4052,11 +4010,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4089,11 +4043,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +4076,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4163,11 +4109,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4200,11 +4142,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4237,11 +4175,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4274,11 +4208,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4311,11 +4241,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4274,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4385,11 +4307,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4422,11 +4340,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4459,11 +4373,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4496,11 +4406,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +4439,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4570,11 +4472,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4607,11 +4505,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4644,11 +4538,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4681,11 +4571,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4718,11 +4604,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4755,11 +4637,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4792,11 +4670,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4829,11 +4703,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4866,11 +4736,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4903,11 +4769,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4940,11 +4802,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +4835,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5014,11 +4868,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5051,11 +4901,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5088,11 +4934,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5125,11 +4967,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5162,11 +5000,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5199,11 +5033,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5066,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5269,16 +5095,14 @@
         <v>20951.18638363003</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
       <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -5304,7 +5128,7 @@
         <v>20951.18638363003</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5337,7 +5161,7 @@
         <v>26812.56188363003</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5403,7 +5227,7 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5436,7 +5260,7 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5469,7 +5293,7 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5502,7 +5326,7 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5535,7 +5359,7 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5568,7 +5392,7 @@
         <v>28417.03088363003</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5601,7 +5425,7 @@
         <v>27673.59668363003</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5634,7 +5458,7 @@
         <v>27673.59668363003</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5667,7 +5491,7 @@
         <v>27673.59668363003</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5700,7 +5524,7 @@
         <v>28072.70758363003</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5865,7 +5689,7 @@
         <v>28256.02598363003</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5909,6 +5733,6 @@
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,9 +521,11 @@
         <v>-25217.6623</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>571</v>
+      </c>
       <c r="J4" t="n">
         <v>570</v>
       </c>
@@ -560,9 +562,11 @@
         <v>-21843.6623</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>578</v>
+      </c>
       <c r="J5" t="n">
         <v>570</v>
       </c>
@@ -681,11 +685,9 @@
         <v>-21643.6623</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>570</v>
       </c>
@@ -722,11 +724,9 @@
         <v>-21643.6623</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>570</v>
       </c>
@@ -763,11 +763,9 @@
         <v>-21743.6623</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>570</v>
       </c>
@@ -804,11 +802,9 @@
         <v>-21193.6623</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>570</v>
       </c>
@@ -845,11 +841,9 @@
         <v>-21193.6623</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>570</v>
       </c>
@@ -886,11 +880,9 @@
         <v>-21193.6623</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>570</v>
       </c>
@@ -927,11 +919,9 @@
         <v>-21190.6623</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>570</v>
       </c>
@@ -1358,11 +1348,9 @@
         <v>-20164.4112</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>570</v>
       </c>
@@ -1399,11 +1387,9 @@
         <v>-12351.69569999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>570</v>
       </c>
@@ -1440,11 +1426,9 @@
         <v>188.3281000000061</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>570</v>
       </c>
@@ -1793,7 +1777,7 @@
         <v>25192.53990000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
@@ -1801,13 +1785,15 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.059912280701754</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.017574692442882</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1832,17 +1818,11 @@
         <v>26739.33520000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>570</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1871,17 +1851,11 @@
         <v>26741.22610000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>570</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1910,17 +1884,11 @@
         <v>26600.22610000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>570</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1949,17 +1917,11 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>570</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1988,17 +1950,11 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>570</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2027,17 +1983,11 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>570</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2069,14 +2019,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>570</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +2052,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>570</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2147,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>570</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2186,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>570</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2225,14 +2151,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>570</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2264,14 +2184,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>570</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2217,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>570</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2250,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>570</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2283,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>570</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2316,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>570</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2459,14 +2349,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>570</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>570</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2537,14 +2415,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>570</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2448,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>570</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2612,23 +2478,15 @@
         <v>33992.10770000002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>570</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1.070438596491228</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.017574692442882</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2818,7 +2676,7 @@
         <v>44749.99430000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2851,7 +2709,7 @@
         <v>44779.99430000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2884,7 +2742,7 @@
         <v>45355.65130000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2917,7 +2775,7 @@
         <v>45356.45130000002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2950,7 +2808,7 @@
         <v>44467.95870000002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2983,7 +2841,7 @@
         <v>44806.16510000002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3016,7 +2874,7 @@
         <v>43360.97010000002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3049,7 +2907,7 @@
         <v>43987.64510000002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3181,7 +3039,7 @@
         <v>43364.55518363002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3214,7 +3072,7 @@
         <v>39735.73048363002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3445,7 +3303,7 @@
         <v>34132.67768363003</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3478,7 +3336,7 @@
         <v>35078.67768363003</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3511,7 +3369,7 @@
         <v>35028.67768363003</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3544,7 +3402,7 @@
         <v>35587.28028363003</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3577,7 +3435,7 @@
         <v>35587.28028363003</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3610,7 +3468,7 @@
         <v>35773.28028363003</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3643,7 +3501,7 @@
         <v>29556.00908363003</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3676,7 +3534,7 @@
         <v>29551.65778363003</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3709,7 +3567,7 @@
         <v>29817.56168363003</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3742,7 +3600,7 @@
         <v>32487.82988363003</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3775,7 +3633,7 @@
         <v>31642.15308363003</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3808,7 +3666,7 @@
         <v>30896.85978363003</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3841,7 +3699,7 @@
         <v>30069.44588363003</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3874,7 +3732,7 @@
         <v>31179.36648363003</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3907,7 +3765,7 @@
         <v>20963.70058363003</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3973,7 +3831,7 @@
         <v>18857.14298363003</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5733,6 +5591,6 @@
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -685,9 +685,11 @@
         <v>-21643.6623</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>579</v>
+      </c>
       <c r="J8" t="n">
         <v>570</v>
       </c>
@@ -724,9 +726,11 @@
         <v>-21643.6623</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>580</v>
+      </c>
       <c r="J9" t="n">
         <v>570</v>
       </c>
@@ -763,9 +767,11 @@
         <v>-21743.6623</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>580</v>
+      </c>
       <c r="J10" t="n">
         <v>570</v>
       </c>
@@ -802,9 +808,11 @@
         <v>-21193.6623</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>579</v>
+      </c>
       <c r="J11" t="n">
         <v>570</v>
       </c>
@@ -841,9 +849,11 @@
         <v>-21193.6623</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>580</v>
+      </c>
       <c r="J12" t="n">
         <v>570</v>
       </c>
@@ -880,9 +890,11 @@
         <v>-21193.6623</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>580</v>
+      </c>
       <c r="J13" t="n">
         <v>570</v>
       </c>
@@ -919,9 +931,11 @@
         <v>-21190.6623</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>580</v>
+      </c>
       <c r="J14" t="n">
         <v>570</v>
       </c>
@@ -958,9 +972,11 @@
         <v>-20397.4706</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>585</v>
+      </c>
       <c r="J15" t="n">
         <v>570</v>
       </c>
@@ -997,9 +1013,11 @@
         <v>-20513.4706</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>588</v>
+      </c>
       <c r="J16" t="n">
         <v>570</v>
       </c>
@@ -1036,9 +1054,11 @@
         <v>-20513.4706</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>587</v>
+      </c>
       <c r="J17" t="n">
         <v>570</v>
       </c>
@@ -1075,9 +1095,11 @@
         <v>-20085.4706</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>587</v>
+      </c>
       <c r="J18" t="n">
         <v>570</v>
       </c>
@@ -1114,9 +1136,11 @@
         <v>-22499.088</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>588</v>
+      </c>
       <c r="J19" t="n">
         <v>570</v>
       </c>
@@ -1153,9 +1177,11 @@
         <v>-22499.088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>587</v>
+      </c>
       <c r="J20" t="n">
         <v>570</v>
       </c>
@@ -1192,9 +1218,11 @@
         <v>-24317.9431</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>587</v>
+      </c>
       <c r="J21" t="n">
         <v>570</v>
       </c>
@@ -1231,9 +1259,11 @@
         <v>-20181.4112</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>585</v>
+      </c>
       <c r="J22" t="n">
         <v>570</v>
       </c>
@@ -1270,9 +1300,11 @@
         <v>-21147.4112</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>589</v>
+      </c>
       <c r="J23" t="n">
         <v>570</v>
       </c>
@@ -1309,9 +1341,11 @@
         <v>-21147.4112</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>576</v>
+      </c>
       <c r="J24" t="n">
         <v>570</v>
       </c>
@@ -1348,9 +1382,11 @@
         <v>-20164.4112</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>576</v>
+      </c>
       <c r="J25" t="n">
         <v>570</v>
       </c>
@@ -1387,9 +1423,11 @@
         <v>-12351.69569999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>589</v>
+      </c>
       <c r="J26" t="n">
         <v>570</v>
       </c>
@@ -1426,9 +1464,11 @@
         <v>188.3281000000061</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>590</v>
+      </c>
       <c r="J27" t="n">
         <v>570</v>
       </c>
@@ -1777,7 +1817,7 @@
         <v>25192.53990000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
@@ -1785,15 +1825,13 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.059912280701754</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.017574692442882</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1818,11 +1856,17 @@
         <v>26739.33520000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>570</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1851,11 +1895,17 @@
         <v>26741.22610000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>570</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1884,11 +1934,17 @@
         <v>26600.22610000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>570</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1917,11 +1973,17 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>570</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1950,11 +2012,17 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>570</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1983,11 +2051,17 @@
         <v>28774.33520000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>570</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2019,8 +2093,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>570</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2052,8 +2132,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>570</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2085,8 +2171,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>570</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2118,8 +2210,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>570</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2148,15 +2246,23 @@
         <v>45241.31920000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>570</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>1.103771929824561</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.017574692442882</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2214,7 +2320,7 @@
         <v>41189.56300000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2280,7 +2386,7 @@
         <v>39791.99350000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2544,7 +2650,7 @@
         <v>32908.72220000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2742,7 +2848,7 @@
         <v>45355.65130000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2775,7 +2881,7 @@
         <v>45356.45130000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2808,7 +2914,7 @@
         <v>44467.95870000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2841,7 +2947,7 @@
         <v>44806.16510000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2874,7 +2980,7 @@
         <v>43360.97010000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2907,7 +3013,7 @@
         <v>43987.64510000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2973,7 +3079,7 @@
         <v>43307.64520000002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3006,7 +3112,7 @@
         <v>43359.64520000002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3039,7 +3145,7 @@
         <v>43364.55518363002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3072,7 +3178,7 @@
         <v>39735.73048363002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest PPT.xlsx
+++ b/BackTest/2019-11-13 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10336.3859</v>
       </c>
       <c r="G2" t="n">
-        <v>-27195.34149999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>877.6792</v>
       </c>
       <c r="G3" t="n">
-        <v>-26317.6623</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>570</v>
       </c>
       <c r="I3" t="n">
         <v>570</v>
       </c>
-      <c r="J3" t="n">
-        <v>570</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>1100</v>
       </c>
       <c r="G4" t="n">
-        <v>-25217.6623</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>571</v>
       </c>
       <c r="I4" t="n">
-        <v>571</v>
-      </c>
-      <c r="J4" t="n">
         <v>570</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,21 @@
         <v>3374</v>
       </c>
       <c r="G5" t="n">
-        <v>-21843.6623</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>578</v>
-      </c>
-      <c r="J5" t="n">
         <v>570</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,1735 +581,1461 @@
         <v>3279.28</v>
       </c>
       <c r="G6" t="n">
-        <v>-21843.6623</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>579</v>
       </c>
-      <c r="J6" t="n">
-        <v>570</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="C7" t="n">
+        <v>579</v>
+      </c>
+      <c r="D7" t="n">
+        <v>579</v>
+      </c>
+      <c r="E7" t="n">
+        <v>579</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4011.0893</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>579</v>
+      </c>
+      <c r="C8" t="n">
+        <v>580</v>
+      </c>
+      <c r="D8" t="n">
+        <v>580</v>
+      </c>
+      <c r="E8" t="n">
+        <v>579</v>
+      </c>
+      <c r="F8" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>579</v>
+      </c>
+      <c r="C9" t="n">
+        <v>580</v>
+      </c>
+      <c r="D9" t="n">
+        <v>580</v>
+      </c>
+      <c r="E9" t="n">
+        <v>579</v>
+      </c>
+      <c r="F9" t="n">
+        <v>150</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>579</v>
+      </c>
+      <c r="C10" t="n">
+        <v>579</v>
+      </c>
+      <c r="D10" t="n">
+        <v>579</v>
+      </c>
+      <c r="E10" t="n">
+        <v>579</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>579</v>
+      </c>
+      <c r="C11" t="n">
+        <v>580</v>
+      </c>
+      <c r="D11" t="n">
+        <v>580</v>
+      </c>
+      <c r="E11" t="n">
+        <v>579</v>
+      </c>
+      <c r="F11" t="n">
+        <v>550</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>579</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>579</v>
-      </c>
-      <c r="C7" t="n">
-        <v>579</v>
-      </c>
-      <c r="D7" t="n">
-        <v>579</v>
-      </c>
-      <c r="E7" t="n">
-        <v>579</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4011.0893</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-21843.6623</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>579</v>
-      </c>
-      <c r="J7" t="n">
-        <v>570</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>580</v>
+      </c>
+      <c r="C12" t="n">
+        <v>580</v>
+      </c>
+      <c r="D12" t="n">
+        <v>580</v>
+      </c>
+      <c r="E12" t="n">
+        <v>580</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4442</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>579</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>580</v>
       </c>
-      <c r="D8" t="n">
+      <c r="C13" t="n">
         <v>580</v>
       </c>
-      <c r="E8" t="n">
-        <v>579</v>
-      </c>
-      <c r="F8" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-21643.6623</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>579</v>
-      </c>
-      <c r="J8" t="n">
-        <v>570</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="D13" t="n">
+        <v>580</v>
+      </c>
+      <c r="E13" t="n">
+        <v>580</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3154.6933</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>579</v>
-      </c>
-      <c r="C9" t="n">
-        <v>580</v>
-      </c>
-      <c r="D9" t="n">
-        <v>580</v>
-      </c>
-      <c r="E9" t="n">
-        <v>579</v>
-      </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-21643.6623</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>580</v>
-      </c>
-      <c r="J9" t="n">
-        <v>570</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>585</v>
+      </c>
+      <c r="C14" t="n">
+        <v>585</v>
+      </c>
+      <c r="D14" t="n">
+        <v>585</v>
+      </c>
+      <c r="E14" t="n">
+        <v>585</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>579</v>
-      </c>
-      <c r="C10" t="n">
-        <v>579</v>
-      </c>
-      <c r="D10" t="n">
-        <v>579</v>
-      </c>
-      <c r="E10" t="n">
-        <v>579</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-21743.6623</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>580</v>
-      </c>
-      <c r="J10" t="n">
-        <v>570</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>586</v>
+      </c>
+      <c r="C15" t="n">
+        <v>588</v>
+      </c>
+      <c r="D15" t="n">
+        <v>588</v>
+      </c>
+      <c r="E15" t="n">
+        <v>586</v>
+      </c>
+      <c r="F15" t="n">
+        <v>793.1917</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>579</v>
-      </c>
-      <c r="C11" t="n">
-        <v>580</v>
-      </c>
-      <c r="D11" t="n">
-        <v>580</v>
-      </c>
-      <c r="E11" t="n">
-        <v>579</v>
-      </c>
-      <c r="F11" t="n">
-        <v>550</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-21193.6623</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>579</v>
-      </c>
-      <c r="J11" t="n">
-        <v>570</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>587</v>
+      </c>
+      <c r="D16" t="n">
+        <v>587</v>
+      </c>
+      <c r="E16" t="n">
+        <v>587</v>
+      </c>
+      <c r="F16" t="n">
+        <v>116</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>580</v>
-      </c>
-      <c r="C12" t="n">
-        <v>580</v>
-      </c>
-      <c r="D12" t="n">
-        <v>580</v>
-      </c>
-      <c r="E12" t="n">
-        <v>580</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4442</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-21193.6623</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>580</v>
-      </c>
-      <c r="J12" t="n">
-        <v>570</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>587</v>
+      </c>
+      <c r="C17" t="n">
+        <v>587</v>
+      </c>
+      <c r="D17" t="n">
+        <v>587</v>
+      </c>
+      <c r="E17" t="n">
+        <v>587</v>
+      </c>
+      <c r="F17" t="n">
+        <v>435.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>580</v>
-      </c>
-      <c r="C13" t="n">
-        <v>580</v>
-      </c>
-      <c r="D13" t="n">
-        <v>580</v>
-      </c>
-      <c r="E13" t="n">
-        <v>580</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3154.6933</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-21193.6623</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>580</v>
-      </c>
-      <c r="J13" t="n">
-        <v>570</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>588</v>
+      </c>
+      <c r="C18" t="n">
+        <v>588</v>
+      </c>
+      <c r="D18" t="n">
+        <v>588</v>
+      </c>
+      <c r="E18" t="n">
+        <v>588</v>
+      </c>
+      <c r="F18" t="n">
+        <v>428</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>585</v>
-      </c>
-      <c r="C14" t="n">
-        <v>585</v>
-      </c>
-      <c r="D14" t="n">
-        <v>585</v>
-      </c>
-      <c r="E14" t="n">
-        <v>585</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-21190.6623</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>580</v>
-      </c>
-      <c r="J14" t="n">
-        <v>570</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>587</v>
+      </c>
+      <c r="C19" t="n">
+        <v>587</v>
+      </c>
+      <c r="D19" t="n">
+        <v>587</v>
+      </c>
+      <c r="E19" t="n">
+        <v>587</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2413.6174</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>586</v>
-      </c>
-      <c r="C15" t="n">
-        <v>588</v>
-      </c>
-      <c r="D15" t="n">
-        <v>588</v>
-      </c>
-      <c r="E15" t="n">
-        <v>586</v>
-      </c>
-      <c r="F15" t="n">
-        <v>793.1917</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-20397.4706</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>585</v>
-      </c>
-      <c r="J15" t="n">
-        <v>570</v>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>587</v>
+      </c>
+      <c r="C20" t="n">
+        <v>587</v>
+      </c>
+      <c r="D20" t="n">
+        <v>587</v>
+      </c>
+      <c r="E20" t="n">
+        <v>587</v>
+      </c>
+      <c r="F20" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>587</v>
-      </c>
-      <c r="C16" t="n">
-        <v>587</v>
-      </c>
-      <c r="D16" t="n">
-        <v>587</v>
-      </c>
-      <c r="E16" t="n">
-        <v>587</v>
-      </c>
-      <c r="F16" t="n">
-        <v>116</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-20513.4706</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>588</v>
-      </c>
-      <c r="J16" t="n">
-        <v>570</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>585</v>
+      </c>
+      <c r="C21" t="n">
+        <v>585</v>
+      </c>
+      <c r="D21" t="n">
+        <v>585</v>
+      </c>
+      <c r="E21" t="n">
+        <v>585</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1818.8551</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>587</v>
-      </c>
-      <c r="C17" t="n">
-        <v>587</v>
-      </c>
-      <c r="D17" t="n">
-        <v>587</v>
-      </c>
-      <c r="E17" t="n">
-        <v>587</v>
-      </c>
-      <c r="F17" t="n">
-        <v>435.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-20513.4706</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>587</v>
-      </c>
-      <c r="J17" t="n">
-        <v>570</v>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>578</v>
+      </c>
+      <c r="C22" t="n">
+        <v>589</v>
+      </c>
+      <c r="D22" t="n">
+        <v>589</v>
+      </c>
+      <c r="E22" t="n">
+        <v>575</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4136.5319</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>588</v>
-      </c>
-      <c r="C18" t="n">
-        <v>588</v>
-      </c>
-      <c r="D18" t="n">
-        <v>588</v>
-      </c>
-      <c r="E18" t="n">
-        <v>588</v>
-      </c>
-      <c r="F18" t="n">
-        <v>428</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-20085.4706</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>587</v>
-      </c>
-      <c r="J18" t="n">
-        <v>570</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>576</v>
+      </c>
+      <c r="C23" t="n">
+        <v>576</v>
+      </c>
+      <c r="D23" t="n">
+        <v>576</v>
+      </c>
+      <c r="E23" t="n">
+        <v>575</v>
+      </c>
+      <c r="F23" t="n">
+        <v>966</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>587</v>
-      </c>
-      <c r="C19" t="n">
-        <v>587</v>
-      </c>
-      <c r="D19" t="n">
-        <v>587</v>
-      </c>
-      <c r="E19" t="n">
-        <v>587</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2413.6174</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-22499.088</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>588</v>
-      </c>
-      <c r="J19" t="n">
-        <v>570</v>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>576</v>
+      </c>
+      <c r="C24" t="n">
+        <v>576</v>
+      </c>
+      <c r="D24" t="n">
+        <v>576</v>
+      </c>
+      <c r="E24" t="n">
+        <v>576</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1166</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>587</v>
-      </c>
-      <c r="C20" t="n">
-        <v>587</v>
-      </c>
-      <c r="D20" t="n">
-        <v>587</v>
-      </c>
-      <c r="E20" t="n">
-        <v>587</v>
-      </c>
-      <c r="F20" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-22499.088</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>587</v>
-      </c>
-      <c r="J20" t="n">
-        <v>570</v>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>576</v>
+      </c>
+      <c r="C25" t="n">
+        <v>589</v>
+      </c>
+      <c r="D25" t="n">
+        <v>589</v>
+      </c>
+      <c r="E25" t="n">
+        <v>576</v>
+      </c>
+      <c r="F25" t="n">
+        <v>983</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>585</v>
-      </c>
-      <c r="C21" t="n">
-        <v>585</v>
-      </c>
-      <c r="D21" t="n">
-        <v>585</v>
-      </c>
-      <c r="E21" t="n">
-        <v>585</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1818.8551</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-24317.9431</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>587</v>
-      </c>
-      <c r="J21" t="n">
-        <v>570</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>589</v>
+      </c>
+      <c r="C26" t="n">
+        <v>590</v>
+      </c>
+      <c r="D26" t="n">
+        <v>590</v>
+      </c>
+      <c r="E26" t="n">
+        <v>589</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7812.7155</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>578</v>
-      </c>
-      <c r="C22" t="n">
-        <v>589</v>
-      </c>
-      <c r="D22" t="n">
-        <v>589</v>
-      </c>
-      <c r="E22" t="n">
-        <v>575</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4136.5319</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-20181.4112</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>585</v>
-      </c>
-      <c r="J22" t="n">
-        <v>570</v>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>590</v>
+      </c>
+      <c r="C27" t="n">
+        <v>593</v>
+      </c>
+      <c r="D27" t="n">
+        <v>593</v>
+      </c>
+      <c r="E27" t="n">
+        <v>590</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12540.0238</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>576</v>
-      </c>
-      <c r="C23" t="n">
-        <v>576</v>
-      </c>
-      <c r="D23" t="n">
-        <v>576</v>
-      </c>
-      <c r="E23" t="n">
-        <v>575</v>
-      </c>
-      <c r="F23" t="n">
-        <v>966</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-21147.4112</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>589</v>
-      </c>
-      <c r="J23" t="n">
-        <v>570</v>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>593</v>
+      </c>
+      <c r="C28" t="n">
+        <v>593</v>
+      </c>
+      <c r="D28" t="n">
+        <v>593</v>
+      </c>
+      <c r="E28" t="n">
+        <v>593</v>
+      </c>
+      <c r="F28" t="n">
+        <v>769.4899</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>576</v>
-      </c>
-      <c r="C24" t="n">
-        <v>576</v>
-      </c>
-      <c r="D24" t="n">
-        <v>576</v>
-      </c>
-      <c r="E24" t="n">
-        <v>576</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1166</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-21147.4112</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>576</v>
-      </c>
-      <c r="J24" t="n">
-        <v>570</v>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>593</v>
+      </c>
+      <c r="C29" t="n">
+        <v>601</v>
+      </c>
+      <c r="D29" t="n">
+        <v>601</v>
+      </c>
+      <c r="E29" t="n">
+        <v>593</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6094.814</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>576</v>
-      </c>
-      <c r="C25" t="n">
-        <v>589</v>
-      </c>
-      <c r="D25" t="n">
-        <v>589</v>
-      </c>
-      <c r="E25" t="n">
-        <v>576</v>
-      </c>
-      <c r="F25" t="n">
-        <v>983</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-20164.4112</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>576</v>
-      </c>
-      <c r="J25" t="n">
-        <v>570</v>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>601</v>
+      </c>
+      <c r="C30" t="n">
+        <v>601</v>
+      </c>
+      <c r="D30" t="n">
+        <v>601</v>
+      </c>
+      <c r="E30" t="n">
+        <v>601</v>
+      </c>
+      <c r="F30" t="n">
+        <v>318.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>589</v>
-      </c>
-      <c r="C26" t="n">
-        <v>590</v>
-      </c>
-      <c r="D26" t="n">
-        <v>590</v>
-      </c>
-      <c r="E26" t="n">
-        <v>589</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7812.7155</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-12351.69569999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>589</v>
-      </c>
-      <c r="J26" t="n">
-        <v>570</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>601</v>
+      </c>
+      <c r="C31" t="n">
+        <v>604</v>
+      </c>
+      <c r="D31" t="n">
+        <v>604</v>
+      </c>
+      <c r="E31" t="n">
+        <v>601</v>
+      </c>
+      <c r="F31" t="n">
+        <v>545.1516</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>590</v>
-      </c>
-      <c r="C27" t="n">
-        <v>593</v>
-      </c>
-      <c r="D27" t="n">
-        <v>593</v>
-      </c>
-      <c r="E27" t="n">
-        <v>590</v>
-      </c>
-      <c r="F27" t="n">
-        <v>12540.0238</v>
-      </c>
-      <c r="G27" t="n">
-        <v>188.3281000000061</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>590</v>
-      </c>
-      <c r="J27" t="n">
-        <v>570</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>604</v>
+      </c>
+      <c r="C32" t="n">
+        <v>602</v>
+      </c>
+      <c r="D32" t="n">
+        <v>608</v>
+      </c>
+      <c r="E32" t="n">
+        <v>602</v>
+      </c>
+      <c r="F32" t="n">
+        <v>991.0031</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>593</v>
-      </c>
-      <c r="C28" t="n">
-        <v>593</v>
-      </c>
-      <c r="D28" t="n">
-        <v>593</v>
-      </c>
-      <c r="E28" t="n">
-        <v>593</v>
-      </c>
-      <c r="F28" t="n">
-        <v>769.4899</v>
-      </c>
-      <c r="G28" t="n">
-        <v>188.3281000000061</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>570</v>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>608</v>
+      </c>
+      <c r="C33" t="n">
+        <v>602</v>
+      </c>
+      <c r="D33" t="n">
+        <v>610</v>
+      </c>
+      <c r="E33" t="n">
+        <v>602</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1529.5652</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>593</v>
-      </c>
-      <c r="C29" t="n">
-        <v>601</v>
-      </c>
-      <c r="D29" t="n">
-        <v>601</v>
-      </c>
-      <c r="E29" t="n">
-        <v>593</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6094.814</v>
-      </c>
-      <c r="G29" t="n">
-        <v>6283.142100000006</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>570</v>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>602</v>
+      </c>
+      <c r="C34" t="n">
+        <v>602</v>
+      </c>
+      <c r="D34" t="n">
+        <v>602</v>
+      </c>
+      <c r="E34" t="n">
+        <v>602</v>
+      </c>
+      <c r="F34" t="n">
+        <v>208.3943</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>601</v>
-      </c>
-      <c r="C30" t="n">
-        <v>601</v>
-      </c>
-      <c r="D30" t="n">
-        <v>601</v>
-      </c>
-      <c r="E30" t="n">
-        <v>601</v>
-      </c>
-      <c r="F30" t="n">
-        <v>318.7</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6283.142100000006</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>570</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>602</v>
+      </c>
+      <c r="C35" t="n">
+        <v>603</v>
+      </c>
+      <c r="D35" t="n">
+        <v>617</v>
+      </c>
+      <c r="E35" t="n">
+        <v>602</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11875.6053</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>601</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>605</v>
+      </c>
+      <c r="C36" t="n">
+        <v>607</v>
+      </c>
+      <c r="D36" t="n">
+        <v>617</v>
+      </c>
+      <c r="E36" t="n">
         <v>604</v>
       </c>
-      <c r="D31" t="n">
-        <v>604</v>
-      </c>
-      <c r="E31" t="n">
-        <v>601</v>
-      </c>
-      <c r="F31" t="n">
-        <v>545.1516</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6828.293700000007</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>570</v>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="F36" t="n">
+        <v>7479.644</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>604</v>
-      </c>
-      <c r="C32" t="n">
-        <v>602</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>607</v>
+      </c>
+      <c r="C37" t="n">
         <v>608</v>
       </c>
-      <c r="E32" t="n">
-        <v>602</v>
-      </c>
-      <c r="F32" t="n">
-        <v>991.0031</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5837.290600000007</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>570</v>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="D37" t="n">
+        <v>608</v>
+      </c>
+      <c r="E37" t="n">
+        <v>607</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1546.7953</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>608</v>
-      </c>
-      <c r="C33" t="n">
-        <v>602</v>
-      </c>
-      <c r="D33" t="n">
-        <v>610</v>
-      </c>
-      <c r="E33" t="n">
-        <v>602</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1529.5652</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5837.290600000007</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>570</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>619</v>
+      </c>
+      <c r="C38" t="n">
+        <v>619</v>
+      </c>
+      <c r="D38" t="n">
+        <v>619</v>
+      </c>
+      <c r="E38" t="n">
+        <v>619</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.8909</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>602</v>
-      </c>
-      <c r="C34" t="n">
-        <v>602</v>
-      </c>
-      <c r="D34" t="n">
-        <v>602</v>
-      </c>
-      <c r="E34" t="n">
-        <v>602</v>
-      </c>
-      <c r="F34" t="n">
-        <v>208.3943</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5837.290600000007</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>570</v>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>609</v>
+      </c>
+      <c r="C39" t="n">
+        <v>609</v>
+      </c>
+      <c r="D39" t="n">
+        <v>609</v>
+      </c>
+      <c r="E39" t="n">
+        <v>609</v>
+      </c>
+      <c r="F39" t="n">
+        <v>141</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>602</v>
-      </c>
-      <c r="C35" t="n">
-        <v>603</v>
-      </c>
-      <c r="D35" t="n">
-        <v>617</v>
-      </c>
-      <c r="E35" t="n">
-        <v>602</v>
-      </c>
-      <c r="F35" t="n">
-        <v>11875.6053</v>
-      </c>
-      <c r="G35" t="n">
-        <v>17712.89590000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>570</v>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>609</v>
+      </c>
+      <c r="C40" t="n">
+        <v>619</v>
+      </c>
+      <c r="D40" t="n">
+        <v>619</v>
+      </c>
+      <c r="E40" t="n">
+        <v>609</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2174.1091</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>605</v>
-      </c>
-      <c r="C36" t="n">
-        <v>607</v>
-      </c>
-      <c r="D36" t="n">
-        <v>617</v>
-      </c>
-      <c r="E36" t="n">
-        <v>604</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7479.644</v>
-      </c>
-      <c r="G36" t="n">
-        <v>25192.53990000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>570</v>
-      </c>
-      <c r="K36" t="inlineStr">
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>620</v>
+      </c>
+      <c r="C41" t="n">
+        <v>619</v>
+      </c>
+      <c r="D41" t="n">
+        <v>620</v>
+      </c>
+      <c r="E41" t="n">
+        <v>619</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1176.2034</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>607</v>
-      </c>
-      <c r="C37" t="n">
-        <v>608</v>
-      </c>
-      <c r="D37" t="n">
-        <v>608</v>
-      </c>
-      <c r="E37" t="n">
-        <v>607</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1546.7953</v>
-      </c>
-      <c r="G37" t="n">
-        <v>26739.33520000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>570</v>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>619</v>
+      </c>
+      <c r="C42" t="n">
+        <v>619</v>
+      </c>
+      <c r="D42" t="n">
+        <v>620</v>
+      </c>
+      <c r="E42" t="n">
+        <v>619</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3353.2787</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>619</v>
-      </c>
-      <c r="C38" t="n">
-        <v>619</v>
-      </c>
-      <c r="D38" t="n">
-        <v>619</v>
-      </c>
-      <c r="E38" t="n">
-        <v>619</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.8909</v>
-      </c>
-      <c r="G38" t="n">
-        <v>26741.22610000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>570</v>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>623</v>
+      </c>
+      <c r="C43" t="n">
+        <v>626</v>
+      </c>
+      <c r="D43" t="n">
+        <v>626</v>
+      </c>
+      <c r="E43" t="n">
+        <v>623</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2557.7172</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>609</v>
-      </c>
-      <c r="C39" t="n">
-        <v>609</v>
-      </c>
-      <c r="D39" t="n">
-        <v>609</v>
-      </c>
-      <c r="E39" t="n">
-        <v>609</v>
-      </c>
-      <c r="F39" t="n">
-        <v>141</v>
-      </c>
-      <c r="G39" t="n">
-        <v>26600.22610000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>570</v>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>626</v>
+      </c>
+      <c r="C44" t="n">
+        <v>635</v>
+      </c>
+      <c r="D44" t="n">
+        <v>635</v>
+      </c>
+      <c r="E44" t="n">
+        <v>626</v>
+      </c>
+      <c r="F44" t="n">
+        <v>16943.7378</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>609</v>
-      </c>
-      <c r="C40" t="n">
-        <v>619</v>
-      </c>
-      <c r="D40" t="n">
-        <v>619</v>
-      </c>
-      <c r="E40" t="n">
-        <v>609</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2174.1091</v>
-      </c>
-      <c r="G40" t="n">
-        <v>28774.33520000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>570</v>
-      </c>
-      <c r="K40" t="inlineStr">
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>635</v>
+      </c>
+      <c r="C45" t="n">
+        <v>639</v>
+      </c>
+      <c r="D45" t="n">
+        <v>639</v>
+      </c>
+      <c r="E45" t="n">
+        <v>635</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3249.0478</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>620</v>
-      </c>
-      <c r="C41" t="n">
-        <v>619</v>
-      </c>
-      <c r="D41" t="n">
-        <v>620</v>
-      </c>
-      <c r="E41" t="n">
-        <v>619</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1176.2034</v>
-      </c>
-      <c r="G41" t="n">
-        <v>28774.33520000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>570</v>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>638</v>
+      </c>
+      <c r="C46" t="n">
+        <v>637</v>
+      </c>
+      <c r="D46" t="n">
+        <v>638</v>
+      </c>
+      <c r="E46" t="n">
+        <v>637</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1936.7673</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>619</v>
-      </c>
-      <c r="C42" t="n">
-        <v>619</v>
-      </c>
-      <c r="D42" t="n">
-        <v>620</v>
-      </c>
-      <c r="E42" t="n">
-        <v>619</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3353.2787</v>
-      </c>
-      <c r="G42" t="n">
-        <v>28774.33520000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>570</v>
-      </c>
-      <c r="K42" t="inlineStr">
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>634</v>
+      </c>
+      <c r="C47" t="n">
+        <v>632</v>
+      </c>
+      <c r="D47" t="n">
+        <v>637</v>
+      </c>
+      <c r="E47" t="n">
+        <v>632</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4346.7515</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>623</v>
-      </c>
-      <c r="C43" t="n">
-        <v>626</v>
-      </c>
-      <c r="D43" t="n">
-        <v>626</v>
-      </c>
-      <c r="E43" t="n">
-        <v>623</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2557.7172</v>
-      </c>
-      <c r="G43" t="n">
-        <v>31332.05240000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>570</v>
-      </c>
-      <c r="K43" t="inlineStr">
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>630</v>
+      </c>
+      <c r="C48" t="n">
+        <v>630</v>
+      </c>
+      <c r="D48" t="n">
+        <v>630</v>
+      </c>
+      <c r="E48" t="n">
+        <v>629</v>
+      </c>
+      <c r="F48" t="n">
+        <v>786.6919</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>626</v>
-      </c>
-      <c r="C44" t="n">
-        <v>635</v>
-      </c>
-      <c r="D44" t="n">
-        <v>635</v>
-      </c>
-      <c r="E44" t="n">
-        <v>626</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16943.7378</v>
-      </c>
-      <c r="G44" t="n">
-        <v>48275.7902</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>570</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>635</v>
-      </c>
-      <c r="C45" t="n">
-        <v>639</v>
-      </c>
-      <c r="D45" t="n">
-        <v>639</v>
-      </c>
-      <c r="E45" t="n">
-        <v>635</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3249.0478</v>
-      </c>
-      <c r="G45" t="n">
-        <v>51524.838</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>570</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>638</v>
-      </c>
-      <c r="C46" t="n">
-        <v>637</v>
-      </c>
-      <c r="D46" t="n">
-        <v>638</v>
-      </c>
-      <c r="E46" t="n">
-        <v>637</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1936.7673</v>
-      </c>
-      <c r="G46" t="n">
-        <v>49588.0707</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>570</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>634</v>
-      </c>
-      <c r="C47" t="n">
-        <v>632</v>
-      </c>
-      <c r="D47" t="n">
-        <v>637</v>
-      </c>
-      <c r="E47" t="n">
-        <v>632</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4346.7515</v>
-      </c>
-      <c r="G47" t="n">
-        <v>45241.31920000001</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>630</v>
+      </c>
+      <c r="C49" t="n">
+        <v>629</v>
+      </c>
+      <c r="D49" t="n">
+        <v>630</v>
+      </c>
+      <c r="E49" t="n">
+        <v>629</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3265.0643</v>
+      </c>
+      <c r="G49" t="n">
         <v>2</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>570</v>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1.103771929824561</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.017574692442882</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>630</v>
-      </c>
-      <c r="C48" t="n">
-        <v>630</v>
-      </c>
-      <c r="D48" t="n">
-        <v>630</v>
-      </c>
-      <c r="E48" t="n">
-        <v>629</v>
-      </c>
-      <c r="F48" t="n">
-        <v>786.6919</v>
-      </c>
-      <c r="G48" t="n">
-        <v>44454.62730000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>630</v>
-      </c>
-      <c r="C49" t="n">
-        <v>629</v>
-      </c>
-      <c r="D49" t="n">
-        <v>630</v>
-      </c>
-      <c r="E49" t="n">
-        <v>629</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3265.0643</v>
-      </c>
-      <c r="G49" t="n">
-        <v>41189.56300000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2350,18 +2057,15 @@
         <v>265.9039</v>
       </c>
       <c r="G50" t="n">
-        <v>41189.56300000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2383,18 +2087,15 @@
         <v>1397.5695</v>
       </c>
       <c r="G51" t="n">
-        <v>39791.99350000001</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2416,18 +2117,15 @@
         <v>575.8339999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>39216.15950000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2449,18 +2147,15 @@
         <v>4246.9644</v>
       </c>
       <c r="G53" t="n">
-        <v>34969.19510000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2482,18 +2177,15 @@
         <v>0.4908</v>
       </c>
       <c r="G54" t="n">
-        <v>34969.19510000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2515,18 +2207,15 @@
         <v>2584.171</v>
       </c>
       <c r="G55" t="n">
-        <v>32385.02410000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2548,18 +2237,15 @@
         <v>1589.1803</v>
       </c>
       <c r="G56" t="n">
-        <v>33974.20440000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2581,18 +2267,15 @@
         <v>17.9033</v>
       </c>
       <c r="G57" t="n">
-        <v>33992.10770000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2614,18 +2297,15 @@
         <v>17.905</v>
       </c>
       <c r="G58" t="n">
-        <v>33992.10770000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2647,18 +2327,15 @@
         <v>1083.3855</v>
       </c>
       <c r="G59" t="n">
-        <v>32908.72220000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2680,18 +2357,15 @@
         <v>3195.7498</v>
       </c>
       <c r="G60" t="n">
-        <v>36104.47200000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2713,18 +2387,15 @@
         <v>1480.195</v>
       </c>
       <c r="G61" t="n">
-        <v>37584.66700000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2746,18 +2417,15 @@
         <v>6645.6873</v>
       </c>
       <c r="G62" t="n">
-        <v>44230.35430000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2779,18 +2447,15 @@
         <v>519.64</v>
       </c>
       <c r="G63" t="n">
-        <v>44749.99430000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2812,18 +2477,15 @@
         <v>30</v>
       </c>
       <c r="G64" t="n">
-        <v>44779.99430000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2845,18 +2507,15 @@
         <v>575.657</v>
       </c>
       <c r="G65" t="n">
-        <v>45355.65130000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2878,18 +2537,15 @@
         <v>0.8</v>
       </c>
       <c r="G66" t="n">
-        <v>45356.45130000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2911,18 +2567,15 @@
         <v>888.4926</v>
       </c>
       <c r="G67" t="n">
-        <v>44467.95870000002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2944,18 +2597,15 @@
         <v>338.2064</v>
       </c>
       <c r="G68" t="n">
-        <v>44806.16510000002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2977,18 +2627,15 @@
         <v>1445.195</v>
       </c>
       <c r="G69" t="n">
-        <v>43360.97010000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3010,18 +2657,15 @@
         <v>626.675</v>
       </c>
       <c r="G70" t="n">
-        <v>43987.64510000002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3043,18 +2687,15 @@
         <v>79.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>43907.64520000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3076,18 +2717,15 @@
         <v>600</v>
       </c>
       <c r="G72" t="n">
-        <v>43307.64520000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3109,18 +2747,15 @@
         <v>52</v>
       </c>
       <c r="G73" t="n">
-        <v>43359.64520000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3142,18 +2777,15 @@
         <v>4.90998363</v>
       </c>
       <c r="G74" t="n">
-        <v>43364.55518363002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3175,18 +2807,15 @@
         <v>3628.8247</v>
       </c>
       <c r="G75" t="n">
-        <v>39735.73048363002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3208,18 +2837,15 @@
         <v>1560.2836</v>
       </c>
       <c r="G76" t="n">
-        <v>41296.01408363003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3241,18 +2867,15 @@
         <v>191.3344</v>
       </c>
       <c r="G77" t="n">
-        <v>41104.67968363003</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3274,18 +2897,15 @@
         <v>5448.8733</v>
       </c>
       <c r="G78" t="n">
-        <v>35655.80638363003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3307,18 +2927,15 @@
         <v>240.3658</v>
       </c>
       <c r="G79" t="n">
-        <v>35415.44058363003</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3340,18 +2957,15 @@
         <v>1513.6591</v>
       </c>
       <c r="G80" t="n">
-        <v>35415.44058363003</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3373,18 +2987,15 @@
         <v>1027.0884</v>
       </c>
       <c r="G81" t="n">
-        <v>35415.44058363003</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3406,18 +3017,15 @@
         <v>1282.7629</v>
       </c>
       <c r="G82" t="n">
-        <v>34132.67768363003</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3439,18 +3047,15 @@
         <v>946</v>
       </c>
       <c r="G83" t="n">
-        <v>35078.67768363003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3472,18 +3077,15 @@
         <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>35028.67768363003</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3505,18 +3107,15 @@
         <v>558.6026000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>35587.28028363003</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3538,18 +3137,15 @@
         <v>672</v>
       </c>
       <c r="G86" t="n">
-        <v>35587.28028363003</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3571,18 +3167,15 @@
         <v>186</v>
       </c>
       <c r="G87" t="n">
-        <v>35773.28028363003</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3604,18 +3197,15 @@
         <v>6217.2712</v>
       </c>
       <c r="G88" t="n">
-        <v>29556.00908363003</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3637,18 +3227,15 @@
         <v>4.3513</v>
       </c>
       <c r="G89" t="n">
-        <v>29551.65778363003</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3670,18 +3257,15 @@
         <v>265.9039</v>
       </c>
       <c r="G90" t="n">
-        <v>29817.56168363003</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3703,18 +3287,15 @@
         <v>2670.2682</v>
       </c>
       <c r="G91" t="n">
-        <v>32487.82988363003</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3736,18 +3317,15 @@
         <v>845.6768</v>
       </c>
       <c r="G92" t="n">
-        <v>31642.15308363003</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3769,18 +3347,15 @@
         <v>745.2933</v>
       </c>
       <c r="G93" t="n">
-        <v>30896.85978363003</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3802,18 +3377,15 @@
         <v>827.4139</v>
       </c>
       <c r="G94" t="n">
-        <v>30069.44588363003</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3835,18 +3407,15 @@
         <v>1109.9206</v>
       </c>
       <c r="G95" t="n">
-        <v>31179.36648363003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3868,18 +3437,15 @@
         <v>10215.6659</v>
       </c>
       <c r="G96" t="n">
-        <v>20963.70058363003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3901,18 +3467,15 @@
         <v>1030.9283</v>
       </c>
       <c r="G97" t="n">
-        <v>19932.77228363003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3934,18 +3497,15 @@
         <v>1075.6293</v>
       </c>
       <c r="G98" t="n">
-        <v>18857.14298363003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3967,18 +3527,15 @@
         <v>362.4599</v>
       </c>
       <c r="G99" t="n">
-        <v>19219.60288363003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4000,18 +3557,15 @@
         <v>1100.8934</v>
       </c>
       <c r="G100" t="n">
-        <v>18118.70948363003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4033,18 +3587,15 @@
         <v>621.3728</v>
       </c>
       <c r="G101" t="n">
-        <v>17497.33668363003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4066,18 +3617,15 @@
         <v>110</v>
       </c>
       <c r="G102" t="n">
-        <v>17607.33668363003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4099,18 +3647,15 @@
         <v>469.4095</v>
       </c>
       <c r="G103" t="n">
-        <v>17607.33668363003</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4132,18 +3677,15 @@
         <v>1012</v>
       </c>
       <c r="G104" t="n">
-        <v>16595.33668363003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4165,18 +3707,15 @@
         <v>870.7238</v>
       </c>
       <c r="G105" t="n">
-        <v>17466.06048363003</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4198,18 +3737,15 @@
         <v>432.63</v>
       </c>
       <c r="G106" t="n">
-        <v>17033.43048363003</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4231,18 +3767,15 @@
         <v>501</v>
       </c>
       <c r="G107" t="n">
-        <v>17534.43048363003</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4264,18 +3797,15 @@
         <v>867</v>
       </c>
       <c r="G108" t="n">
-        <v>18401.43048363003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4297,18 +3827,15 @@
         <v>740.7652</v>
       </c>
       <c r="G109" t="n">
-        <v>18401.43048363003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4330,18 +3857,15 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>18402.43048363003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4363,18 +3887,15 @@
         <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>18432.43048363003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4396,18 +3917,15 @@
         <v>131</v>
       </c>
       <c r="G112" t="n">
-        <v>18563.43048363003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4429,18 +3947,15 @@
         <v>1378.4746</v>
       </c>
       <c r="G113" t="n">
-        <v>18563.43048363003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4462,18 +3977,15 @@
         <v>227</v>
       </c>
       <c r="G114" t="n">
-        <v>18563.43048363003</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4495,18 +4007,15 @@
         <v>675</v>
       </c>
       <c r="G115" t="n">
-        <v>19238.43048363003</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4528,18 +4037,15 @@
         <v>428.6505</v>
       </c>
       <c r="G116" t="n">
-        <v>19667.08098363003</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4561,18 +4067,15 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>19666.08098363003</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4594,18 +4097,15 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>19667.08098363003</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4627,18 +4127,15 @@
         <v>1203.7176</v>
       </c>
       <c r="G119" t="n">
-        <v>20870.79858363002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4660,18 +4157,15 @@
         <v>40</v>
       </c>
       <c r="G120" t="n">
-        <v>20830.79858363002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4693,18 +4187,15 @@
         <v>160</v>
       </c>
       <c r="G121" t="n">
-        <v>20990.79858363002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4726,18 +4217,15 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>20989.79858363002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4759,18 +4247,15 @@
         <v>169.7854</v>
       </c>
       <c r="G123" t="n">
-        <v>21159.58398363003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4792,18 +4277,15 @@
         <v>4841</v>
       </c>
       <c r="G124" t="n">
-        <v>21159.58398363003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4825,18 +4307,15 @@
         <v>313.5373</v>
       </c>
       <c r="G125" t="n">
-        <v>21473.12128363003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4858,18 +4337,15 @@
         <v>225.9627</v>
       </c>
       <c r="G126" t="n">
-        <v>21473.12128363003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4891,18 +4367,15 @@
         <v>1920.0465</v>
       </c>
       <c r="G127" t="n">
-        <v>21473.12128363003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4924,18 +4397,15 @@
         <v>755.4991</v>
       </c>
       <c r="G128" t="n">
-        <v>22228.62038363003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4957,18 +4427,15 @@
         <v>153.138</v>
       </c>
       <c r="G129" t="n">
-        <v>22381.75838363003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4990,18 +4457,15 @@
         <v>444.5373</v>
       </c>
       <c r="G130" t="n">
-        <v>22381.75838363003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5023,18 +4487,15 @@
         <v>1441.572</v>
       </c>
       <c r="G131" t="n">
-        <v>20940.18638363003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5056,18 +4517,15 @@
         <v>11</v>
       </c>
       <c r="G132" t="n">
-        <v>20951.18638363003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5089,18 +4547,15 @@
         <v>576.5</v>
       </c>
       <c r="G133" t="n">
-        <v>20951.18638363003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5122,18 +4577,15 @@
         <v>5861.3755</v>
       </c>
       <c r="G134" t="n">
-        <v>26812.56188363003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5155,18 +4607,15 @@
         <v>1604.469</v>
       </c>
       <c r="G135" t="n">
-        <v>28417.03088363003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5188,18 +4637,15 @@
         <v>524</v>
       </c>
       <c r="G136" t="n">
-        <v>28417.03088363003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5221,18 +4667,15 @@
         <v>471</v>
       </c>
       <c r="G137" t="n">
-        <v>28417.03088363003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5254,18 +4697,15 @@
         <v>1983.9998</v>
       </c>
       <c r="G138" t="n">
-        <v>28417.03088363003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5287,18 +4727,15 @@
         <v>1316</v>
       </c>
       <c r="G139" t="n">
-        <v>28417.03088363003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5320,18 +4757,15 @@
         <v>1266.9999</v>
       </c>
       <c r="G140" t="n">
-        <v>28417.03088363003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5353,18 +4787,15 @@
         <v>272.9999</v>
       </c>
       <c r="G141" t="n">
-        <v>28417.03088363003</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5386,18 +4817,15 @@
         <v>743.4342</v>
       </c>
       <c r="G142" t="n">
-        <v>27673.59668363003</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5419,18 +4847,15 @@
         <v>135</v>
       </c>
       <c r="G143" t="n">
-        <v>27673.59668363003</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5452,18 +4877,15 @@
         <v>53.49</v>
       </c>
       <c r="G144" t="n">
-        <v>27673.59668363003</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5485,18 +4907,15 @@
         <v>399.1109</v>
       </c>
       <c r="G145" t="n">
-        <v>28072.70758363003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5518,18 +4937,15 @@
         <v>332.44</v>
       </c>
       <c r="G146" t="n">
-        <v>28072.70758363003</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5551,18 +4967,15 @@
         <v>1440.62</v>
       </c>
       <c r="G147" t="n">
-        <v>28072.70758363003</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5584,18 +4997,15 @@
         <v>469.5174</v>
       </c>
       <c r="G148" t="n">
-        <v>27603.19018363003</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5617,18 +5027,15 @@
         <v>2881.0631</v>
       </c>
       <c r="G149" t="n">
-        <v>30484.25328363003</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5650,18 +5057,15 @@
         <v>2228.2273</v>
       </c>
       <c r="G150" t="n">
-        <v>28256.02598363003</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5683,18 +5087,15 @@
         <v>528.9999</v>
       </c>
       <c r="G151" t="n">
-        <v>28785.02588363003</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
